--- a/data/raw/election/voters-age-sex-education/2023/Denizli.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Denizli.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:34:51-10473635961" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="48">
   <si>
     <t>Denizli</t>
   </si>
@@ -158,6 +157,12 @@
   </si>
   <si>
     <t>Tavas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -691,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -705,16 +710,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1039,10 +1053,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N498"/>
+  <dimension ref="A1:N500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A499" sqref="A499:A500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,52 +1072,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1160,8 +1174,8 @@
       <c r="G6" s="4">
         <v>584</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.6519999999999999</v>
+      <c r="H6" s="5">
+        <v>1652</v>
       </c>
       <c r="I6" s="4">
         <v>310</v>
@@ -1175,8 +1189,8 @@
       <c r="L6" s="4">
         <v>49</v>
       </c>
-      <c r="M6" s="5">
-        <v>2.6259999999999999</v>
+      <c r="M6" s="6">
+        <v>2626</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1199,8 +1213,8 @@
       <c r="G7" s="4">
         <v>354</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.66</v>
+      <c r="H7" s="5">
+        <v>1660</v>
       </c>
       <c r="I7" s="4">
         <v>484</v>
@@ -1214,8 +1228,8 @@
       <c r="L7" s="4">
         <v>21</v>
       </c>
-      <c r="M7" s="5">
-        <v>2.5390000000000001</v>
+      <c r="M7" s="6">
+        <v>2539</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1255,8 +1269,8 @@
       <c r="L8" s="4">
         <v>20</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.8049999999999999</v>
+      <c r="M8" s="6">
+        <v>1805</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1294,8 +1308,8 @@
       <c r="L9" s="4">
         <v>17</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.522</v>
+      <c r="M9" s="6">
+        <v>1522</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1335,8 +1349,8 @@
       <c r="L10" s="4">
         <v>9</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.5249999999999999</v>
+      <c r="M10" s="6">
+        <v>1525</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1374,8 +1388,8 @@
       <c r="L11" s="4">
         <v>20</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.4450000000000001</v>
+      <c r="M11" s="6">
+        <v>1445</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1415,8 +1429,8 @@
       <c r="L12" s="4">
         <v>16</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.7889999999999999</v>
+      <c r="M12" s="6">
+        <v>1789</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1454,8 +1468,8 @@
       <c r="L13" s="4">
         <v>7</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.542</v>
+      <c r="M13" s="6">
+        <v>1542</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1495,8 +1509,8 @@
       <c r="L14" s="4">
         <v>16</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.9319999999999999</v>
+      <c r="M14" s="6">
+        <v>1932</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1534,8 +1548,8 @@
       <c r="L15" s="4">
         <v>23</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.7589999999999999</v>
+      <c r="M15" s="6">
+        <v>1759</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1575,8 +1589,8 @@
       <c r="L16" s="4">
         <v>31</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.9690000000000001</v>
+      <c r="M16" s="6">
+        <v>1969</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1614,8 +1628,8 @@
       <c r="L17" s="4">
         <v>38</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.865</v>
+      <c r="M17" s="6">
+        <v>1865</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1655,8 +1669,8 @@
       <c r="L18" s="4">
         <v>35</v>
       </c>
-      <c r="M18" s="5">
-        <v>2</v>
+      <c r="M18" s="6">
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1694,8 +1708,8 @@
       <c r="L19" s="4">
         <v>39</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.9510000000000001</v>
+      <c r="M19" s="6">
+        <v>1951</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1735,8 +1749,8 @@
       <c r="L20" s="4">
         <v>52</v>
       </c>
-      <c r="M20" s="5">
-        <v>2.0089999999999999</v>
+      <c r="M20" s="6">
+        <v>2009</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1750,8 +1764,8 @@
       <c r="D21" s="4">
         <v>43</v>
       </c>
-      <c r="E21" s="4">
-        <v>1.077</v>
+      <c r="E21" s="5">
+        <v>1077</v>
       </c>
       <c r="F21" s="4">
         <v>220</v>
@@ -1774,8 +1788,8 @@
       <c r="L21" s="4">
         <v>37</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.9139999999999999</v>
+      <c r="M21" s="6">
+        <v>1914</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1815,8 +1829,8 @@
       <c r="L22" s="4">
         <v>41</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.798</v>
+      <c r="M22" s="6">
+        <v>1798</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1830,8 +1844,8 @@
       <c r="D23" s="4">
         <v>125</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.228</v>
+      <c r="E23" s="5">
+        <v>1228</v>
       </c>
       <c r="F23" s="4">
         <v>127</v>
@@ -1854,8 +1868,8 @@
       <c r="L23" s="4">
         <v>52</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.9359999999999999</v>
+      <c r="M23" s="6">
+        <v>1936</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1895,8 +1909,8 @@
       <c r="L24" s="4">
         <v>45</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.502</v>
+      <c r="M24" s="6">
+        <v>1502</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1910,8 +1924,8 @@
       <c r="D25" s="4">
         <v>258</v>
       </c>
-      <c r="E25" s="4">
-        <v>1.0049999999999999</v>
+      <c r="E25" s="5">
+        <v>1005</v>
       </c>
       <c r="F25" s="4">
         <v>38</v>
@@ -1934,8 +1948,8 @@
       <c r="L25" s="4">
         <v>29</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.569</v>
+      <c r="M25" s="6">
+        <v>1569</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1975,8 +1989,8 @@
       <c r="L26" s="4">
         <v>47</v>
       </c>
-      <c r="M26" s="5">
-        <v>1.2529999999999999</v>
+      <c r="M26" s="6">
+        <v>1253</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,8 +2028,8 @@
       <c r="L27" s="4">
         <v>40</v>
       </c>
-      <c r="M27" s="5">
-        <v>1.4410000000000001</v>
+      <c r="M27" s="6">
+        <v>1441</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2031,8 +2045,8 @@
       <c r="D28" s="4">
         <v>196</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.298</v>
+      <c r="E28" s="5">
+        <v>1298</v>
       </c>
       <c r="F28" s="4">
         <v>16</v>
@@ -2055,8 +2069,8 @@
       <c r="L28" s="4">
         <v>45</v>
       </c>
-      <c r="M28" s="5">
-        <v>1.7629999999999999</v>
+      <c r="M28" s="6">
+        <v>1763</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2067,8 +2081,8 @@
       <c r="C29" s="4">
         <v>293</v>
       </c>
-      <c r="D29" s="4">
-        <v>1.2729999999999999</v>
+      <c r="D29" s="5">
+        <v>1273</v>
       </c>
       <c r="E29" s="4">
         <v>949</v>
@@ -2094,54 +2108,54 @@
       <c r="L29" s="4">
         <v>35</v>
       </c>
-      <c r="M29" s="5">
-        <v>2.6280000000000001</v>
+      <c r="M29" s="6">
+        <v>2628</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8">
         <v>625</v>
       </c>
-      <c r="D30" s="5">
-        <v>2.528</v>
-      </c>
-      <c r="E30" s="5">
-        <v>13.449</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3.996</v>
-      </c>
-      <c r="G30" s="5">
-        <v>6.03</v>
-      </c>
-      <c r="H30" s="5">
-        <v>10.15</v>
-      </c>
-      <c r="I30" s="5">
-        <v>5.9260000000000002</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="D30" s="6">
+        <v>2528</v>
+      </c>
+      <c r="E30" s="6">
+        <v>13449</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3996</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6030</v>
+      </c>
+      <c r="H30" s="6">
+        <v>10150</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5926</v>
+      </c>
+      <c r="J30" s="8">
         <v>568</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="8">
         <v>46</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>764</v>
       </c>
-      <c r="M30" s="5">
-        <v>44.082000000000001</v>
+      <c r="M30" s="6">
+        <v>44082</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2227,7 @@
       <c r="L32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="8">
         <v>359</v>
       </c>
     </row>
@@ -2252,7 +2266,7 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="8">
         <v>306</v>
       </c>
     </row>
@@ -2293,7 +2307,7 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="8">
         <v>248</v>
       </c>
     </row>
@@ -2332,7 +2346,7 @@
       <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="8">
         <v>185</v>
       </c>
     </row>
@@ -2373,7 +2387,7 @@
       <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="8">
         <v>207</v>
       </c>
     </row>
@@ -2412,7 +2426,7 @@
       <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="8">
         <v>160</v>
       </c>
     </row>
@@ -2453,7 +2467,7 @@
       <c r="L38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="8">
         <v>221</v>
       </c>
     </row>
@@ -2492,7 +2506,7 @@
       <c r="L39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="8">
         <v>183</v>
       </c>
     </row>
@@ -2533,7 +2547,7 @@
       <c r="L40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="8">
         <v>249</v>
       </c>
     </row>
@@ -2572,7 +2586,7 @@
       <c r="L41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="8">
         <v>220</v>
       </c>
     </row>
@@ -2613,7 +2627,7 @@
       <c r="L42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="8">
         <v>232</v>
       </c>
     </row>
@@ -2652,7 +2666,7 @@
       <c r="L43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="8">
         <v>192</v>
       </c>
     </row>
@@ -2693,7 +2707,7 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="8">
         <v>215</v>
       </c>
     </row>
@@ -2732,7 +2746,7 @@
       <c r="L45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="8">
         <v>228</v>
       </c>
     </row>
@@ -2773,7 +2787,7 @@
       <c r="L46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="8">
         <v>224</v>
       </c>
     </row>
@@ -2812,7 +2826,7 @@
       <c r="L47" s="4">
         <v>2</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="8">
         <v>183</v>
       </c>
     </row>
@@ -2853,7 +2867,7 @@
       <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="8">
         <v>200</v>
       </c>
     </row>
@@ -2892,7 +2906,7 @@
       <c r="L49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="8">
         <v>218</v>
       </c>
     </row>
@@ -2933,7 +2947,7 @@
       <c r="L50" s="4">
         <v>2</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="8">
         <v>161</v>
       </c>
     </row>
@@ -2972,7 +2986,7 @@
       <c r="L51" s="4">
         <v>1</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>134</v>
       </c>
     </row>
@@ -3013,7 +3027,7 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>124</v>
       </c>
     </row>
@@ -3052,7 +3066,7 @@
       <c r="L53" s="4">
         <v>1</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>148</v>
       </c>
     </row>
@@ -3093,7 +3107,7 @@
       <c r="L54" s="4">
         <v>2</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>157</v>
       </c>
     </row>
@@ -3132,7 +3146,7 @@
       <c r="L55" s="4">
         <v>3</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="8">
         <v>265</v>
       </c>
     </row>
@@ -3140,46 +3154,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>70</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <v>220</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.857</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>1857</v>
+      </c>
+      <c r="F56" s="8">
         <v>605</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="8">
         <v>850</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="8">
         <v>946</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="8">
         <v>423</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="8">
         <v>20</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>4</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>24</v>
       </c>
-      <c r="M56" s="5">
-        <v>5.0190000000000001</v>
+      <c r="M56" s="6">
+        <v>5019</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3251,7 +3265,7 @@
       <c r="L58" s="4">
         <v>1</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="8">
         <v>232</v>
       </c>
     </row>
@@ -3290,7 +3304,7 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="8">
         <v>224</v>
       </c>
     </row>
@@ -3331,7 +3345,7 @@
       <c r="L60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>153</v>
       </c>
     </row>
@@ -3370,7 +3384,7 @@
       <c r="L61" s="4">
         <v>1</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>162</v>
       </c>
     </row>
@@ -3411,7 +3425,7 @@
       <c r="L62" s="4">
         <v>1</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>144</v>
       </c>
     </row>
@@ -3450,7 +3464,7 @@
       <c r="L63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>107</v>
       </c>
     </row>
@@ -3491,7 +3505,7 @@
       <c r="L64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>134</v>
       </c>
     </row>
@@ -3530,7 +3544,7 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>105</v>
       </c>
     </row>
@@ -3571,7 +3585,7 @@
       <c r="L66" s="4">
         <v>2</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>200</v>
       </c>
     </row>
@@ -3610,7 +3624,7 @@
       <c r="L67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>132</v>
       </c>
     </row>
@@ -3651,7 +3665,7 @@
       <c r="L68" s="4">
         <v>1</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>187</v>
       </c>
     </row>
@@ -3690,7 +3704,7 @@
       <c r="L69" s="4">
         <v>3</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>159</v>
       </c>
     </row>
@@ -3731,7 +3745,7 @@
       <c r="L70" s="4">
         <v>3</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>206</v>
       </c>
     </row>
@@ -3770,7 +3784,7 @@
       <c r="L71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>176</v>
       </c>
     </row>
@@ -3811,7 +3825,7 @@
       <c r="L72" s="4">
         <v>2</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>199</v>
       </c>
     </row>
@@ -3850,7 +3864,7 @@
       <c r="L73" s="4">
         <v>5</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>182</v>
       </c>
     </row>
@@ -3891,7 +3905,7 @@
       <c r="L74" s="4">
         <v>2</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>188</v>
       </c>
     </row>
@@ -3930,7 +3944,7 @@
       <c r="L75" s="4">
         <v>2</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>198</v>
       </c>
     </row>
@@ -3971,7 +3985,7 @@
       <c r="L76" s="4">
         <v>2</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>156</v>
       </c>
     </row>
@@ -4010,7 +4024,7 @@
       <c r="L77" s="4">
         <v>2</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>169</v>
       </c>
     </row>
@@ -4051,7 +4065,7 @@
       <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>185</v>
       </c>
     </row>
@@ -4090,7 +4104,7 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>207</v>
       </c>
     </row>
@@ -4131,7 +4145,7 @@
       <c r="L80" s="4">
         <v>5</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>201</v>
       </c>
     </row>
@@ -4170,7 +4184,7 @@
       <c r="L81" s="4">
         <v>2</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>377</v>
       </c>
     </row>
@@ -4178,46 +4192,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>38</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="8">
         <v>189</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>1705</v>
+      </c>
+      <c r="F82" s="8">
         <v>378</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="8">
         <v>629</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="8">
         <v>983</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="8">
         <v>393</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="8">
         <v>25</v>
       </c>
-      <c r="K82" s="5">
-        <v>1</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="8">
+        <v>1</v>
+      </c>
+      <c r="L82" s="8">
         <v>42</v>
       </c>
-      <c r="M82" s="5">
-        <v>4.383</v>
+      <c r="M82" s="6">
+        <v>4383</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4289,7 +4303,7 @@
       <c r="L84" s="4">
         <v>5</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="8">
         <v>233</v>
       </c>
     </row>
@@ -4328,7 +4342,7 @@
       <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="8">
         <v>190</v>
       </c>
     </row>
@@ -4369,7 +4383,7 @@
       <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>162</v>
       </c>
     </row>
@@ -4408,7 +4422,7 @@
       <c r="L87" s="4">
         <v>2</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>142</v>
       </c>
     </row>
@@ -4449,7 +4463,7 @@
       <c r="L88" s="4">
         <v>1</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>148</v>
       </c>
     </row>
@@ -4488,7 +4502,7 @@
       <c r="L89" s="4">
         <v>1</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>151</v>
       </c>
     </row>
@@ -4529,7 +4543,7 @@
       <c r="L90" s="4">
         <v>3</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>184</v>
       </c>
     </row>
@@ -4568,7 +4582,7 @@
       <c r="L91" s="4">
         <v>1</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>127</v>
       </c>
     </row>
@@ -4609,7 +4623,7 @@
       <c r="L92" s="4">
         <v>1</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="8">
         <v>196</v>
       </c>
     </row>
@@ -4648,7 +4662,7 @@
       <c r="L93" s="4">
         <v>2</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="8">
         <v>154</v>
       </c>
     </row>
@@ -4689,7 +4703,7 @@
       <c r="L94" s="4">
         <v>5</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="8">
         <v>211</v>
       </c>
     </row>
@@ -4728,7 +4742,7 @@
       <c r="L95" s="4">
         <v>4</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="8">
         <v>205</v>
       </c>
     </row>
@@ -4769,7 +4783,7 @@
       <c r="L96" s="4">
         <v>5</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="8">
         <v>233</v>
       </c>
     </row>
@@ -4808,7 +4822,7 @@
       <c r="L97" s="4">
         <v>7</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="8">
         <v>214</v>
       </c>
     </row>
@@ -4849,7 +4863,7 @@
       <c r="L98" s="4">
         <v>12</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>262</v>
       </c>
     </row>
@@ -4888,7 +4902,7 @@
       <c r="L99" s="4">
         <v>13</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>270</v>
       </c>
     </row>
@@ -4929,7 +4943,7 @@
       <c r="L100" s="4">
         <v>7</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>283</v>
       </c>
     </row>
@@ -4968,7 +4982,7 @@
       <c r="L101" s="4">
         <v>7</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>305</v>
       </c>
     </row>
@@ -5009,7 +5023,7 @@
       <c r="L102" s="4">
         <v>17</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>235</v>
       </c>
     </row>
@@ -5048,7 +5062,7 @@
       <c r="L103" s="4">
         <v>15</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>285</v>
       </c>
     </row>
@@ -5089,7 +5103,7 @@
       <c r="L104" s="4">
         <v>9</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>222</v>
       </c>
     </row>
@@ -5128,7 +5142,7 @@
       <c r="L105" s="4">
         <v>14</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>275</v>
       </c>
     </row>
@@ -5169,7 +5183,7 @@
       <c r="L106" s="4">
         <v>15</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>302</v>
       </c>
     </row>
@@ -5208,7 +5222,7 @@
       <c r="L107" s="4">
         <v>17</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>529</v>
       </c>
     </row>
@@ -5216,46 +5230,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>122</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="8">
         <v>401</v>
       </c>
-      <c r="E108" s="5">
-        <v>2.0590000000000002</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>2059</v>
+      </c>
+      <c r="F108" s="8">
         <v>465</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="8">
         <v>635</v>
       </c>
-      <c r="H108" s="5">
-        <v>1.109</v>
-      </c>
-      <c r="I108" s="5">
+      <c r="H108" s="6">
+        <v>1109</v>
+      </c>
+      <c r="I108" s="8">
         <v>520</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="8">
         <v>40</v>
       </c>
-      <c r="K108" s="5">
-        <v>2</v>
-      </c>
-      <c r="L108" s="5">
+      <c r="K108" s="8">
+        <v>2</v>
+      </c>
+      <c r="L108" s="8">
         <v>165</v>
       </c>
-      <c r="M108" s="5">
-        <v>5.5179999999999998</v>
+      <c r="M108" s="6">
+        <v>5518</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5327,7 +5341,7 @@
       <c r="L110" s="4">
         <v>2</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="8">
         <v>269</v>
       </c>
     </row>
@@ -5366,7 +5380,7 @@
       <c r="L111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="8">
         <v>251</v>
       </c>
     </row>
@@ -5407,7 +5421,7 @@
       <c r="L112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="8">
         <v>217</v>
       </c>
     </row>
@@ -5446,7 +5460,7 @@
       <c r="L113" s="4">
         <v>1</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="8">
         <v>181</v>
       </c>
     </row>
@@ -5487,7 +5501,7 @@
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="8">
         <v>187</v>
       </c>
     </row>
@@ -5526,7 +5540,7 @@
       <c r="L115" s="4">
         <v>1</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>139</v>
       </c>
     </row>
@@ -5567,7 +5581,7 @@
       <c r="L116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>201</v>
       </c>
     </row>
@@ -5606,7 +5620,7 @@
       <c r="L117" s="4">
         <v>2</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>143</v>
       </c>
     </row>
@@ -5647,7 +5661,7 @@
       <c r="L118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>239</v>
       </c>
     </row>
@@ -5686,7 +5700,7 @@
       <c r="L119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>199</v>
       </c>
     </row>
@@ -5727,7 +5741,7 @@
       <c r="L120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>239</v>
       </c>
     </row>
@@ -5766,7 +5780,7 @@
       <c r="L121" s="4">
         <v>1</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>194</v>
       </c>
     </row>
@@ -5807,7 +5821,7 @@
       <c r="L122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>241</v>
       </c>
     </row>
@@ -5846,7 +5860,7 @@
       <c r="L123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>229</v>
       </c>
     </row>
@@ -5887,7 +5901,7 @@
       <c r="L124" s="4">
         <v>2</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>253</v>
       </c>
     </row>
@@ -5926,7 +5940,7 @@
       <c r="L125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>256</v>
       </c>
     </row>
@@ -5967,7 +5981,7 @@
       <c r="L126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>249</v>
       </c>
     </row>
@@ -6006,7 +6020,7 @@
       <c r="L127" s="4">
         <v>2</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>277</v>
       </c>
     </row>
@@ -6047,7 +6061,7 @@
       <c r="L128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>187</v>
       </c>
     </row>
@@ -6086,7 +6100,7 @@
       <c r="L129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>217</v>
       </c>
     </row>
@@ -6127,7 +6141,7 @@
       <c r="L130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>129</v>
       </c>
     </row>
@@ -6166,7 +6180,7 @@
       <c r="L131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>159</v>
       </c>
     </row>
@@ -6207,7 +6221,7 @@
       <c r="L132" s="4">
         <v>1</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>175</v>
       </c>
     </row>
@@ -6246,7 +6260,7 @@
       <c r="L133" s="4">
         <v>3</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>259</v>
       </c>
     </row>
@@ -6254,46 +6268,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>54</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>297</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.363</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>1363</v>
+      </c>
+      <c r="F134" s="8">
         <v>503</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="8">
         <v>923</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="H134" s="6">
+        <v>1408</v>
+      </c>
+      <c r="I134" s="8">
         <v>487</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="8">
         <v>38</v>
       </c>
-      <c r="K134" s="5">
-        <v>2</v>
-      </c>
-      <c r="L134" s="5">
-        <v>15</v>
-      </c>
-      <c r="M134" s="5">
-        <v>5.09</v>
+      <c r="K134" s="8">
+        <v>2</v>
+      </c>
+      <c r="L134" s="8">
+        <v>15</v>
+      </c>
+      <c r="M134" s="6">
+        <v>5090</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6365,7 +6379,7 @@
       <c r="L136" s="4">
         <v>3</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="8">
         <v>385</v>
       </c>
     </row>
@@ -6404,7 +6418,7 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="8">
         <v>414</v>
       </c>
     </row>
@@ -6445,7 +6459,7 @@
       <c r="L138" s="4">
         <v>2</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="8">
         <v>313</v>
       </c>
     </row>
@@ -6484,7 +6498,7 @@
       <c r="L139" s="4">
         <v>3</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="8">
         <v>273</v>
       </c>
     </row>
@@ -6525,7 +6539,7 @@
       <c r="L140" s="4">
         <v>2</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="8">
         <v>283</v>
       </c>
     </row>
@@ -6564,7 +6578,7 @@
       <c r="L141" s="4">
         <v>5</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="8">
         <v>257</v>
       </c>
     </row>
@@ -6605,7 +6619,7 @@
       <c r="L142" s="4">
         <v>5</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="8">
         <v>363</v>
       </c>
     </row>
@@ -6644,7 +6658,7 @@
       <c r="L143" s="4">
         <v>5</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="8">
         <v>305</v>
       </c>
     </row>
@@ -6685,7 +6699,7 @@
       <c r="L144" s="4">
         <v>4</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="8">
         <v>392</v>
       </c>
     </row>
@@ -6724,7 +6738,7 @@
       <c r="L145" s="4">
         <v>3</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="8">
         <v>309</v>
       </c>
     </row>
@@ -6765,7 +6779,7 @@
       <c r="L146" s="4">
         <v>3</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="8">
         <v>369</v>
       </c>
     </row>
@@ -6804,7 +6818,7 @@
       <c r="L147" s="4">
         <v>4</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="8">
         <v>333</v>
       </c>
     </row>
@@ -6845,7 +6859,7 @@
       <c r="L148" s="4">
         <v>3</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="8">
         <v>376</v>
       </c>
     </row>
@@ -6884,7 +6898,7 @@
       <c r="L149" s="4">
         <v>11</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="8">
         <v>397</v>
       </c>
     </row>
@@ -6925,7 +6939,7 @@
       <c r="L150" s="4">
         <v>16</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="8">
         <v>380</v>
       </c>
     </row>
@@ -6964,7 +6978,7 @@
       <c r="L151" s="4">
         <v>11</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="8">
         <v>390</v>
       </c>
     </row>
@@ -7005,7 +7019,7 @@
       <c r="L152" s="4">
         <v>6</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="8">
         <v>404</v>
       </c>
     </row>
@@ -7044,7 +7058,7 @@
       <c r="L153" s="4">
         <v>11</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="8">
         <v>444</v>
       </c>
     </row>
@@ -7085,7 +7099,7 @@
       <c r="L154" s="4">
         <v>5</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="8">
         <v>323</v>
       </c>
     </row>
@@ -7124,7 +7138,7 @@
       <c r="L155" s="4">
         <v>4</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="8">
         <v>346</v>
       </c>
     </row>
@@ -7165,7 +7179,7 @@
       <c r="L156" s="4">
         <v>10</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>267</v>
       </c>
     </row>
@@ -7204,7 +7218,7 @@
       <c r="L157" s="4">
         <v>12</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>316</v>
       </c>
     </row>
@@ -7245,7 +7259,7 @@
       <c r="L158" s="4">
         <v>2</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="8">
         <v>366</v>
       </c>
     </row>
@@ -7284,7 +7298,7 @@
       <c r="L159" s="4">
         <v>3</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="8">
         <v>564</v>
       </c>
     </row>
@@ -7292,46 +7306,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="8">
         <v>89</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="8">
         <v>530</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.7240000000000002</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.081</v>
-      </c>
-      <c r="H160" s="5">
-        <v>1.857</v>
-      </c>
-      <c r="I160" s="5">
+      <c r="E160" s="6">
+        <v>2724</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1144</v>
+      </c>
+      <c r="G160" s="6">
+        <v>1081</v>
+      </c>
+      <c r="H160" s="6">
+        <v>1857</v>
+      </c>
+      <c r="I160" s="8">
         <v>939</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="8">
         <v>66</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>4</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>135</v>
       </c>
-      <c r="M160" s="5">
-        <v>8.5690000000000008</v>
+      <c r="M160" s="6">
+        <v>8569</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7403,8 +7417,8 @@
       <c r="L162" s="4">
         <v>10</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.258</v>
+      <c r="M162" s="6">
+        <v>1258</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7442,8 +7456,8 @@
       <c r="L163" s="4">
         <v>7</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.194</v>
+      <c r="M163" s="6">
+        <v>1194</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7483,7 +7497,7 @@
       <c r="L164" s="4">
         <v>2</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>850</v>
       </c>
     </row>
@@ -7522,7 +7536,7 @@
       <c r="L165" s="4">
         <v>1</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>746</v>
       </c>
     </row>
@@ -7563,7 +7577,7 @@
       <c r="L166" s="4">
         <v>4</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>734</v>
       </c>
     </row>
@@ -7602,7 +7616,7 @@
       <c r="L167" s="4">
         <v>6</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>734</v>
       </c>
     </row>
@@ -7643,7 +7657,7 @@
       <c r="L168" s="4">
         <v>6</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>850</v>
       </c>
     </row>
@@ -7682,7 +7696,7 @@
       <c r="L169" s="4">
         <v>6</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>907</v>
       </c>
     </row>
@@ -7723,8 +7737,8 @@
       <c r="L170" s="4">
         <v>6</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M170" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7762,8 +7776,8 @@
       <c r="L171" s="4">
         <v>4</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.028</v>
+      <c r="M171" s="6">
+        <v>1028</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7803,7 +7817,7 @@
       <c r="L172" s="4">
         <v>5</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>981</v>
       </c>
     </row>
@@ -7842,7 +7856,7 @@
       <c r="L173" s="4">
         <v>8</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>958</v>
       </c>
     </row>
@@ -7883,7 +7897,7 @@
       <c r="L174" s="4">
         <v>6</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>914</v>
       </c>
     </row>
@@ -7922,7 +7936,7 @@
       <c r="L175" s="4">
         <v>7</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="8">
         <v>980</v>
       </c>
     </row>
@@ -7963,7 +7977,7 @@
       <c r="L176" s="4">
         <v>10</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="8">
         <v>920</v>
       </c>
     </row>
@@ -8002,7 +8016,7 @@
       <c r="L177" s="4">
         <v>13</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="8">
         <v>990</v>
       </c>
     </row>
@@ -8043,7 +8057,7 @@
       <c r="L178" s="4">
         <v>14</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="8">
         <v>929</v>
       </c>
     </row>
@@ -8082,7 +8096,7 @@
       <c r="L179" s="4">
         <v>17</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="8">
         <v>939</v>
       </c>
     </row>
@@ -8123,7 +8137,7 @@
       <c r="L180" s="4">
         <v>12</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="8">
         <v>705</v>
       </c>
     </row>
@@ -8162,7 +8176,7 @@
       <c r="L181" s="4">
         <v>6</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="8">
         <v>790</v>
       </c>
     </row>
@@ -8203,7 +8217,7 @@
       <c r="L182" s="4">
         <v>6</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>474</v>
       </c>
     </row>
@@ -8242,7 +8256,7 @@
       <c r="L183" s="4">
         <v>11</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>593</v>
       </c>
     </row>
@@ -8283,7 +8297,7 @@
       <c r="L184" s="4">
         <v>16</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="8">
         <v>630</v>
       </c>
     </row>
@@ -8322,7 +8336,7 @@
       <c r="L185" s="4">
         <v>6</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="8">
         <v>997</v>
       </c>
     </row>
@@ -8330,46 +8344,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>206</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="8">
         <v>975</v>
       </c>
-      <c r="E186" s="5">
-        <v>7.6319999999999997</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.978</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.504</v>
-      </c>
-      <c r="H186" s="5">
-        <v>4.8440000000000003</v>
-      </c>
-      <c r="I186" s="5">
-        <v>2.6360000000000001</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E186" s="6">
+        <v>7632</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1978</v>
+      </c>
+      <c r="G186" s="6">
+        <v>2504</v>
+      </c>
+      <c r="H186" s="6">
+        <v>4844</v>
+      </c>
+      <c r="I186" s="6">
+        <v>2636</v>
+      </c>
+      <c r="J186" s="8">
         <v>196</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>13</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>189</v>
       </c>
-      <c r="M186" s="5">
-        <v>21.172999999999998</v>
+      <c r="M186" s="6">
+        <v>21173</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8441,7 +8455,7 @@
       <c r="L188" s="4">
         <v>4</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="8">
         <v>680</v>
       </c>
     </row>
@@ -8480,7 +8494,7 @@
       <c r="L189" s="4">
         <v>2</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="8">
         <v>629</v>
       </c>
     </row>
@@ -8521,7 +8535,7 @@
       <c r="L190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="8">
         <v>549</v>
       </c>
     </row>
@@ -8560,7 +8574,7 @@
       <c r="L191" s="4">
         <v>3</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>445</v>
       </c>
     </row>
@@ -8601,7 +8615,7 @@
       <c r="L192" s="4">
         <v>2</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>509</v>
       </c>
     </row>
@@ -8640,7 +8654,7 @@
       <c r="L193" s="4">
         <v>3</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>371</v>
       </c>
     </row>
@@ -8681,7 +8695,7 @@
       <c r="L194" s="4">
         <v>1</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>512</v>
       </c>
     </row>
@@ -8720,7 +8734,7 @@
       <c r="L195" s="4">
         <v>5</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>433</v>
       </c>
     </row>
@@ -8761,7 +8775,7 @@
       <c r="L196" s="4">
         <v>3</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="8">
         <v>571</v>
       </c>
     </row>
@@ -8800,7 +8814,7 @@
       <c r="L197" s="4">
         <v>6</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>436</v>
       </c>
     </row>
@@ -8841,7 +8855,7 @@
       <c r="L198" s="4">
         <v>3</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="8">
         <v>570</v>
       </c>
     </row>
@@ -8880,7 +8894,7 @@
       <c r="L199" s="4">
         <v>4</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>544</v>
       </c>
     </row>
@@ -8921,7 +8935,7 @@
       <c r="L200" s="4">
         <v>3</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="8">
         <v>644</v>
       </c>
     </row>
@@ -8960,7 +8974,7 @@
       <c r="L201" s="4">
         <v>3</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>613</v>
       </c>
     </row>
@@ -9001,7 +9015,7 @@
       <c r="L202" s="4">
         <v>5</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="8">
         <v>680</v>
       </c>
     </row>
@@ -9040,7 +9054,7 @@
       <c r="L203" s="4">
         <v>6</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="8">
         <v>721</v>
       </c>
     </row>
@@ -9081,7 +9095,7 @@
       <c r="L204" s="4">
         <v>10</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="8">
         <v>759</v>
       </c>
     </row>
@@ -9120,7 +9134,7 @@
       <c r="L205" s="4">
         <v>7</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="8">
         <v>720</v>
       </c>
     </row>
@@ -9161,7 +9175,7 @@
       <c r="L206" s="4">
         <v>6</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="8">
         <v>540</v>
       </c>
     </row>
@@ -9200,7 +9214,7 @@
       <c r="L207" s="4">
         <v>8</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="8">
         <v>579</v>
       </c>
     </row>
@@ -9241,7 +9255,7 @@
       <c r="L208" s="4">
         <v>6</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>479</v>
       </c>
     </row>
@@ -9280,7 +9294,7 @@
       <c r="L209" s="4">
         <v>9</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>676</v>
       </c>
     </row>
@@ -9321,7 +9335,7 @@
       <c r="L210" s="4">
         <v>10</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>800</v>
       </c>
     </row>
@@ -9360,54 +9374,54 @@
       <c r="L211" s="4">
         <v>9</v>
       </c>
-      <c r="M211" s="5">
-        <v>1.381</v>
+      <c r="M211" s="6">
+        <v>1381</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>197</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="8">
         <v>863</v>
       </c>
-      <c r="E212" s="5">
-        <v>5.3289999999999997</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.256</v>
-      </c>
-      <c r="G212" s="5">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="I212" s="5">
-        <v>1.62</v>
-      </c>
-      <c r="J212" s="5">
+      <c r="E212" s="6">
+        <v>5329</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1256</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1999</v>
+      </c>
+      <c r="H212" s="6">
+        <v>3322</v>
+      </c>
+      <c r="I212" s="6">
+        <v>1620</v>
+      </c>
+      <c r="J212" s="8">
         <v>126</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>11</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>118</v>
       </c>
-      <c r="M212" s="5">
-        <v>14.840999999999999</v>
+      <c r="M212" s="6">
+        <v>14841</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9479,7 +9493,7 @@
       <c r="L214" s="4">
         <v>6</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="8">
         <v>775</v>
       </c>
     </row>
@@ -9518,7 +9532,7 @@
       <c r="L215" s="4">
         <v>1</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="8">
         <v>711</v>
       </c>
     </row>
@@ -9559,7 +9573,7 @@
       <c r="L216" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="8">
         <v>472</v>
       </c>
     </row>
@@ -9598,7 +9612,7 @@
       <c r="L217" s="4">
         <v>2</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="8">
         <v>370</v>
       </c>
     </row>
@@ -9639,7 +9653,7 @@
       <c r="L218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="8">
         <v>432</v>
       </c>
     </row>
@@ -9678,7 +9692,7 @@
       <c r="L219" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="8">
         <v>377</v>
       </c>
     </row>
@@ -9719,7 +9733,7 @@
       <c r="L220" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="8">
         <v>532</v>
       </c>
     </row>
@@ -9758,7 +9772,7 @@
       <c r="L221" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="8">
         <v>387</v>
       </c>
     </row>
@@ -9799,7 +9813,7 @@
       <c r="L222" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="8">
         <v>562</v>
       </c>
     </row>
@@ -9838,7 +9852,7 @@
       <c r="L223" s="4">
         <v>2</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="8">
         <v>512</v>
       </c>
     </row>
@@ -9879,7 +9893,7 @@
       <c r="L224" s="4">
         <v>2</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="8">
         <v>616</v>
       </c>
     </row>
@@ -9918,7 +9932,7 @@
       <c r="L225" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="8">
         <v>593</v>
       </c>
     </row>
@@ -9959,7 +9973,7 @@
       <c r="L226" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="8">
         <v>726</v>
       </c>
     </row>
@@ -9998,7 +10012,7 @@
       <c r="L227" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="8">
         <v>717</v>
       </c>
     </row>
@@ -10039,7 +10053,7 @@
       <c r="L228" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="8">
         <v>774</v>
       </c>
     </row>
@@ -10078,7 +10092,7 @@
       <c r="L229" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="8">
         <v>773</v>
       </c>
     </row>
@@ -10119,7 +10133,7 @@
       <c r="L230" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="8">
         <v>690</v>
       </c>
     </row>
@@ -10158,7 +10172,7 @@
       <c r="L231" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="8">
         <v>733</v>
       </c>
     </row>
@@ -10199,7 +10213,7 @@
       <c r="L232" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="8">
         <v>647</v>
       </c>
     </row>
@@ -10238,7 +10252,7 @@
       <c r="L233" s="4">
         <v>1</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="8">
         <v>675</v>
       </c>
     </row>
@@ -10279,7 +10293,7 @@
       <c r="L234" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>465</v>
       </c>
     </row>
@@ -10318,7 +10332,7 @@
       <c r="L235" s="4">
         <v>1</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="8">
         <v>520</v>
       </c>
     </row>
@@ -10359,7 +10373,7 @@
       <c r="L236" s="4">
         <v>2</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="8">
         <v>790</v>
       </c>
     </row>
@@ -10398,54 +10412,54 @@
       <c r="L237" s="4">
         <v>2</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.0269999999999999</v>
+      <c r="M237" s="6">
+        <v>1027</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="8">
         <v>186</v>
       </c>
-      <c r="D238" s="5">
-        <v>1.034</v>
-      </c>
-      <c r="E238" s="5">
-        <v>6.7030000000000003</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>1.706</v>
-      </c>
-      <c r="H238" s="5">
-        <v>2.399</v>
-      </c>
-      <c r="I238" s="5">
-        <v>1.24</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="D238" s="6">
+        <v>1034</v>
+      </c>
+      <c r="E238" s="6">
+        <v>6703</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1449</v>
+      </c>
+      <c r="G238" s="6">
+        <v>1706</v>
+      </c>
+      <c r="H238" s="6">
+        <v>2399</v>
+      </c>
+      <c r="I238" s="6">
+        <v>1240</v>
+      </c>
+      <c r="J238" s="8">
         <v>130</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>10</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>19</v>
       </c>
-      <c r="M238" s="5">
-        <v>14.875999999999999</v>
+      <c r="M238" s="6">
+        <v>14876</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10517,7 +10531,7 @@
       <c r="L240" s="4">
         <v>7</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="8">
         <v>344</v>
       </c>
     </row>
@@ -10556,7 +10570,7 @@
       <c r="L241" s="4">
         <v>6</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="8">
         <v>320</v>
       </c>
     </row>
@@ -10597,7 +10611,7 @@
       <c r="L242" s="4">
         <v>2</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="8">
         <v>270</v>
       </c>
     </row>
@@ -10636,7 +10650,7 @@
       <c r="L243" s="4">
         <v>4</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="8">
         <v>275</v>
       </c>
     </row>
@@ -10677,7 +10691,7 @@
       <c r="L244" s="4">
         <v>4</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="8">
         <v>255</v>
       </c>
     </row>
@@ -10716,7 +10730,7 @@
       <c r="L245" s="4">
         <v>4</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="8">
         <v>206</v>
       </c>
     </row>
@@ -10757,7 +10771,7 @@
       <c r="L246" s="4">
         <v>5</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="8">
         <v>303</v>
       </c>
     </row>
@@ -10796,7 +10810,7 @@
       <c r="L247" s="4">
         <v>2</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="8">
         <v>260</v>
       </c>
     </row>
@@ -10837,7 +10851,7 @@
       <c r="L248" s="4">
         <v>4</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="8">
         <v>303</v>
       </c>
     </row>
@@ -10876,7 +10890,7 @@
       <c r="L249" s="4">
         <v>5</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="8">
         <v>276</v>
       </c>
     </row>
@@ -10917,7 +10931,7 @@
       <c r="L250" s="4">
         <v>7</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="8">
         <v>300</v>
       </c>
     </row>
@@ -10956,7 +10970,7 @@
       <c r="L251" s="4">
         <v>6</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="8">
         <v>249</v>
       </c>
     </row>
@@ -10997,7 +11011,7 @@
       <c r="L252" s="4">
         <v>7</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="8">
         <v>279</v>
       </c>
     </row>
@@ -11036,7 +11050,7 @@
       <c r="L253" s="4">
         <v>9</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="8">
         <v>275</v>
       </c>
     </row>
@@ -11077,7 +11091,7 @@
       <c r="L254" s="4">
         <v>10</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="8">
         <v>318</v>
       </c>
     </row>
@@ -11116,7 +11130,7 @@
       <c r="L255" s="4">
         <v>3</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="8">
         <v>277</v>
       </c>
     </row>
@@ -11157,7 +11171,7 @@
       <c r="L256" s="4">
         <v>7</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="8">
         <v>282</v>
       </c>
     </row>
@@ -11196,7 +11210,7 @@
       <c r="L257" s="4">
         <v>4</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="8">
         <v>329</v>
       </c>
     </row>
@@ -11237,7 +11251,7 @@
       <c r="L258" s="4">
         <v>7</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="8">
         <v>241</v>
       </c>
     </row>
@@ -11276,7 +11290,7 @@
       <c r="L259" s="4">
         <v>9</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="8">
         <v>267</v>
       </c>
     </row>
@@ -11317,7 +11331,7 @@
       <c r="L260" s="4">
         <v>5</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="8">
         <v>204</v>
       </c>
     </row>
@@ -11356,7 +11370,7 @@
       <c r="L261" s="4">
         <v>10</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="8">
         <v>257</v>
       </c>
     </row>
@@ -11397,7 +11411,7 @@
       <c r="L262" s="4">
         <v>10</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="8">
         <v>260</v>
       </c>
     </row>
@@ -11436,7 +11450,7 @@
       <c r="L263" s="4">
         <v>6</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="8">
         <v>394</v>
       </c>
     </row>
@@ -11444,46 +11458,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>106</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="8">
         <v>428</v>
       </c>
-      <c r="E264" s="5">
-        <v>2.1320000000000001</v>
-      </c>
-      <c r="F264" s="5">
+      <c r="E264" s="6">
+        <v>2132</v>
+      </c>
+      <c r="F264" s="8">
         <v>672</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G264" s="8">
         <v>901</v>
       </c>
-      <c r="H264" s="5">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="I264" s="5">
+      <c r="H264" s="6">
+        <v>1598</v>
+      </c>
+      <c r="I264" s="8">
         <v>702</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="8">
         <v>57</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>5</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>143</v>
       </c>
-      <c r="M264" s="5">
-        <v>6.7439999999999998</v>
+      <c r="M264" s="6">
+        <v>6744</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11540,8 +11554,8 @@
       <c r="G266" s="4">
         <v>858</v>
       </c>
-      <c r="H266" s="4">
-        <v>1.54</v>
+      <c r="H266" s="5">
+        <v>1540</v>
       </c>
       <c r="I266" s="4">
         <v>247</v>
@@ -11555,8 +11569,8 @@
       <c r="L266" s="4">
         <v>27</v>
       </c>
-      <c r="M266" s="5">
-        <v>2.7309999999999999</v>
+      <c r="M266" s="6">
+        <v>2731</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11579,8 +11593,8 @@
       <c r="G267" s="4">
         <v>569</v>
       </c>
-      <c r="H267" s="4">
-        <v>1.512</v>
+      <c r="H267" s="5">
+        <v>1512</v>
       </c>
       <c r="I267" s="4">
         <v>477</v>
@@ -11594,8 +11608,8 @@
       <c r="L267" s="4">
         <v>26</v>
       </c>
-      <c r="M267" s="5">
-        <v>2.6829999999999998</v>
+      <c r="M267" s="6">
+        <v>2683</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11635,8 +11649,8 @@
       <c r="L268" s="4">
         <v>10</v>
       </c>
-      <c r="M268" s="5">
-        <v>1.8129999999999999</v>
+      <c r="M268" s="6">
+        <v>1813</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11674,8 +11688,8 @@
       <c r="L269" s="4">
         <v>12</v>
       </c>
-      <c r="M269" s="5">
-        <v>1.7649999999999999</v>
+      <c r="M269" s="6">
+        <v>1765</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11715,8 +11729,8 @@
       <c r="L270" s="4">
         <v>16</v>
       </c>
-      <c r="M270" s="5">
-        <v>1.702</v>
+      <c r="M270" s="6">
+        <v>1702</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11754,8 +11768,8 @@
       <c r="L271" s="4">
         <v>14</v>
       </c>
-      <c r="M271" s="5">
-        <v>1.6459999999999999</v>
+      <c r="M271" s="6">
+        <v>1646</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11795,8 +11809,8 @@
       <c r="L272" s="4">
         <v>19</v>
       </c>
-      <c r="M272" s="5">
-        <v>1.9930000000000001</v>
+      <c r="M272" s="6">
+        <v>1993</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11834,8 +11848,8 @@
       <c r="L273" s="4">
         <v>15</v>
       </c>
-      <c r="M273" s="5">
-        <v>1.796</v>
+      <c r="M273" s="6">
+        <v>1796</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11875,8 +11889,8 @@
       <c r="L274" s="4">
         <v>32</v>
       </c>
-      <c r="M274" s="5">
-        <v>2.044</v>
+      <c r="M274" s="6">
+        <v>2044</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11914,8 +11928,8 @@
       <c r="L275" s="4">
         <v>30</v>
       </c>
-      <c r="M275" s="5">
-        <v>1.909</v>
+      <c r="M275" s="6">
+        <v>1909</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11955,8 +11969,8 @@
       <c r="L276" s="4">
         <v>32</v>
       </c>
-      <c r="M276" s="5">
-        <v>2.0680000000000001</v>
+      <c r="M276" s="6">
+        <v>2068</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11994,8 +12008,8 @@
       <c r="L277" s="4">
         <v>29</v>
       </c>
-      <c r="M277" s="5">
-        <v>1.9350000000000001</v>
+      <c r="M277" s="6">
+        <v>1935</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12035,8 +12049,8 @@
       <c r="L278" s="4">
         <v>47</v>
       </c>
-      <c r="M278" s="5">
-        <v>1.976</v>
+      <c r="M278" s="6">
+        <v>1976</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12050,8 +12064,8 @@
       <c r="D279" s="4">
         <v>40</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.095</v>
+      <c r="E279" s="5">
+        <v>1095</v>
       </c>
       <c r="F279" s="4">
         <v>158</v>
@@ -12074,8 +12088,8 @@
       <c r="L279" s="4">
         <v>47</v>
       </c>
-      <c r="M279" s="5">
-        <v>1.9630000000000001</v>
+      <c r="M279" s="6">
+        <v>1963</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12115,8 +12129,8 @@
       <c r="L280" s="4">
         <v>63</v>
       </c>
-      <c r="M280" s="5">
-        <v>1.9430000000000001</v>
+      <c r="M280" s="6">
+        <v>1943</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12130,8 +12144,8 @@
       <c r="D281" s="4">
         <v>56</v>
       </c>
-      <c r="E281" s="4">
-        <v>1.3069999999999999</v>
+      <c r="E281" s="5">
+        <v>1307</v>
       </c>
       <c r="F281" s="4">
         <v>112</v>
@@ -12154,8 +12168,8 @@
       <c r="L281" s="4">
         <v>55</v>
       </c>
-      <c r="M281" s="5">
-        <v>2.0579999999999998</v>
+      <c r="M281" s="6">
+        <v>2058</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12195,8 +12209,8 @@
       <c r="L282" s="4">
         <v>51</v>
       </c>
-      <c r="M282" s="5">
-        <v>1.8720000000000001</v>
+      <c r="M282" s="6">
+        <v>1872</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12210,8 +12224,8 @@
       <c r="D283" s="4">
         <v>98</v>
       </c>
-      <c r="E283" s="4">
-        <v>1.393</v>
+      <c r="E283" s="5">
+        <v>1393</v>
       </c>
       <c r="F283" s="4">
         <v>66</v>
@@ -12234,8 +12248,8 @@
       <c r="L283" s="4">
         <v>54</v>
       </c>
-      <c r="M283" s="5">
-        <v>1.9770000000000001</v>
+      <c r="M283" s="6">
+        <v>1977</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12275,8 +12289,8 @@
       <c r="L284" s="4">
         <v>59</v>
       </c>
-      <c r="M284" s="5">
-        <v>1.548</v>
+      <c r="M284" s="6">
+        <v>1548</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12290,8 +12304,8 @@
       <c r="D285" s="4">
         <v>168</v>
       </c>
-      <c r="E285" s="4">
-        <v>1.292</v>
+      <c r="E285" s="5">
+        <v>1292</v>
       </c>
       <c r="F285" s="4">
         <v>15</v>
@@ -12314,8 +12328,8 @@
       <c r="L285" s="4">
         <v>43</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.8320000000000001</v>
+      <c r="M285" s="6">
+        <v>1832</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12355,8 +12369,8 @@
       <c r="L286" s="4">
         <v>47</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.3169999999999999</v>
+      <c r="M286" s="6">
+        <v>1317</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12370,8 +12384,8 @@
       <c r="D287" s="4">
         <v>287</v>
       </c>
-      <c r="E287" s="4">
-        <v>1.02</v>
+      <c r="E287" s="5">
+        <v>1020</v>
       </c>
       <c r="F287" s="4">
         <v>4</v>
@@ -12394,8 +12408,8 @@
       <c r="L287" s="4">
         <v>47</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.629</v>
+      <c r="M287" s="6">
+        <v>1629</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12411,8 +12425,8 @@
       <c r="D288" s="4">
         <v>230</v>
       </c>
-      <c r="E288" s="4">
-        <v>1.125</v>
+      <c r="E288" s="5">
+        <v>1125</v>
       </c>
       <c r="F288" s="4">
         <v>11</v>
@@ -12435,8 +12449,8 @@
       <c r="L288" s="4">
         <v>40</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.669</v>
+      <c r="M288" s="6">
+        <v>1669</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12450,8 +12464,8 @@
       <c r="D289" s="4">
         <v>688</v>
       </c>
-      <c r="E289" s="4">
-        <v>1.0760000000000001</v>
+      <c r="E289" s="5">
+        <v>1076</v>
       </c>
       <c r="F289" s="4">
         <v>1</v>
@@ -12474,54 +12488,54 @@
       <c r="L289" s="4">
         <v>33</v>
       </c>
-      <c r="M289" s="5">
-        <v>2.4689999999999999</v>
+      <c r="M289" s="6">
+        <v>2469</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="D290" s="5">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="E290" s="5">
-        <v>15.217000000000001</v>
-      </c>
-      <c r="F290" s="5">
-        <v>3.51</v>
-      </c>
-      <c r="G290" s="5">
-        <v>6.8940000000000001</v>
-      </c>
-      <c r="H290" s="5">
-        <v>10.602</v>
-      </c>
-      <c r="I290" s="5">
-        <v>5.2949999999999999</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
+        <v>1324</v>
+      </c>
+      <c r="D290" s="6">
+        <v>2094</v>
+      </c>
+      <c r="E290" s="6">
+        <v>15217</v>
+      </c>
+      <c r="F290" s="6">
+        <v>3510</v>
+      </c>
+      <c r="G290" s="6">
+        <v>6894</v>
+      </c>
+      <c r="H290" s="6">
+        <v>10602</v>
+      </c>
+      <c r="I290" s="6">
+        <v>5295</v>
+      </c>
+      <c r="J290" s="8">
         <v>517</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="8">
         <v>37</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>848</v>
       </c>
-      <c r="M290" s="5">
-        <v>46.338000000000001</v>
+      <c r="M290" s="6">
+        <v>46338</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12593,7 +12607,7 @@
       <c r="L292" s="4">
         <v>1</v>
       </c>
-      <c r="M292" s="5">
+      <c r="M292" s="8">
         <v>446</v>
       </c>
     </row>
@@ -12632,7 +12646,7 @@
       <c r="L293" s="4">
         <v>1</v>
       </c>
-      <c r="M293" s="5">
+      <c r="M293" s="8">
         <v>377</v>
       </c>
     </row>
@@ -12673,7 +12687,7 @@
       <c r="L294" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="8">
         <v>272</v>
       </c>
     </row>
@@ -12712,7 +12726,7 @@
       <c r="L295" s="4">
         <v>1</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="8">
         <v>213</v>
       </c>
     </row>
@@ -12753,7 +12767,7 @@
       <c r="L296" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="8">
         <v>261</v>
       </c>
     </row>
@@ -12792,7 +12806,7 @@
       <c r="L297" s="4">
         <v>1</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="8">
         <v>181</v>
       </c>
     </row>
@@ -12833,7 +12847,7 @@
       <c r="L298" s="4">
         <v>1</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="8">
         <v>260</v>
       </c>
     </row>
@@ -12872,7 +12886,7 @@
       <c r="L299" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="8">
         <v>218</v>
       </c>
     </row>
@@ -12913,7 +12927,7 @@
       <c r="L300" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="8">
         <v>268</v>
       </c>
     </row>
@@ -12952,7 +12966,7 @@
       <c r="L301" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="8">
         <v>286</v>
       </c>
     </row>
@@ -12993,7 +13007,7 @@
       <c r="L302" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="8">
         <v>347</v>
       </c>
     </row>
@@ -13032,7 +13046,7 @@
       <c r="L303" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="8">
         <v>305</v>
       </c>
     </row>
@@ -13073,7 +13087,7 @@
       <c r="L304" s="4">
         <v>1</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="8">
         <v>366</v>
       </c>
     </row>
@@ -13112,7 +13126,7 @@
       <c r="L305" s="4">
         <v>1</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="8">
         <v>351</v>
       </c>
     </row>
@@ -13153,7 +13167,7 @@
       <c r="L306" s="4">
         <v>2</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="8">
         <v>418</v>
       </c>
     </row>
@@ -13192,7 +13206,7 @@
       <c r="L307" s="4">
         <v>2</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="8">
         <v>432</v>
       </c>
     </row>
@@ -13233,7 +13247,7 @@
       <c r="L308" s="4">
         <v>3</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="8">
         <v>391</v>
       </c>
     </row>
@@ -13272,7 +13286,7 @@
       <c r="L309" s="4">
         <v>3</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="8">
         <v>401</v>
       </c>
     </row>
@@ -13313,7 +13327,7 @@
       <c r="L310" s="4">
         <v>3</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="8">
         <v>291</v>
       </c>
     </row>
@@ -13352,7 +13366,7 @@
       <c r="L311" s="4">
         <v>1</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="8">
         <v>346</v>
       </c>
     </row>
@@ -13393,7 +13407,7 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="8">
         <v>247</v>
       </c>
     </row>
@@ -13432,7 +13446,7 @@
       <c r="L313" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="8">
         <v>282</v>
       </c>
     </row>
@@ -13473,7 +13487,7 @@
       <c r="L314" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="8">
         <v>362</v>
       </c>
     </row>
@@ -13512,7 +13526,7 @@
       <c r="L315" s="4">
         <v>1</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="8">
         <v>587</v>
       </c>
     </row>
@@ -13520,46 +13534,46 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="8">
         <v>293</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="8">
         <v>518</v>
       </c>
-      <c r="E316" s="5">
-        <v>2.9420000000000002</v>
-      </c>
-      <c r="F316" s="5">
+      <c r="E316" s="6">
+        <v>2942</v>
+      </c>
+      <c r="F316" s="8">
         <v>907</v>
       </c>
-      <c r="G316" s="5">
+      <c r="G316" s="8">
         <v>958</v>
       </c>
-      <c r="H316" s="5">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="I316" s="5">
+      <c r="H316" s="6">
+        <v>1567</v>
+      </c>
+      <c r="I316" s="8">
         <v>655</v>
       </c>
-      <c r="J316" s="5">
+      <c r="J316" s="8">
         <v>40</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="8">
         <v>4</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="8">
         <v>24</v>
       </c>
-      <c r="M316" s="5">
-        <v>7.9080000000000004</v>
+      <c r="M316" s="6">
+        <v>7908</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13631,8 +13645,8 @@
       <c r="L318" s="4">
         <v>16</v>
       </c>
-      <c r="M318" s="5">
-        <v>1.583</v>
+      <c r="M318" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13670,8 +13684,8 @@
       <c r="L319" s="4">
         <v>14</v>
       </c>
-      <c r="M319" s="5">
-        <v>1.476</v>
+      <c r="M319" s="6">
+        <v>1476</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13711,8 +13725,8 @@
       <c r="L320" s="4">
         <v>9</v>
       </c>
-      <c r="M320" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M320" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13750,7 +13764,7 @@
       <c r="L321" s="4">
         <v>17</v>
       </c>
-      <c r="M321" s="5">
+      <c r="M321" s="8">
         <v>996</v>
       </c>
     </row>
@@ -13791,8 +13805,8 @@
       <c r="L322" s="4">
         <v>14</v>
       </c>
-      <c r="M322" s="5">
-        <v>1.06</v>
+      <c r="M322" s="6">
+        <v>1060</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13830,7 +13844,7 @@
       <c r="L323" s="4">
         <v>16</v>
       </c>
-      <c r="M323" s="5">
+      <c r="M323" s="8">
         <v>928</v>
       </c>
     </row>
@@ -13871,8 +13885,8 @@
       <c r="L324" s="4">
         <v>12</v>
       </c>
-      <c r="M324" s="5">
-        <v>1.0840000000000001</v>
+      <c r="M324" s="6">
+        <v>1084</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13910,7 +13924,7 @@
       <c r="L325" s="4">
         <v>17</v>
       </c>
-      <c r="M325" s="5">
+      <c r="M325" s="8">
         <v>903</v>
       </c>
     </row>
@@ -13951,8 +13965,8 @@
       <c r="L326" s="4">
         <v>9</v>
       </c>
-      <c r="M326" s="5">
-        <v>1.115</v>
+      <c r="M326" s="6">
+        <v>1115</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13990,8 +14004,8 @@
       <c r="L327" s="4">
         <v>13</v>
       </c>
-      <c r="M327" s="5">
-        <v>1.0760000000000001</v>
+      <c r="M327" s="6">
+        <v>1076</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14031,8 +14045,8 @@
       <c r="L328" s="4">
         <v>8</v>
       </c>
-      <c r="M328" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M328" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14070,7 +14084,7 @@
       <c r="L329" s="4">
         <v>11</v>
       </c>
-      <c r="M329" s="5">
+      <c r="M329" s="8">
         <v>987</v>
       </c>
     </row>
@@ -14111,8 +14125,8 @@
       <c r="L330" s="4">
         <v>15</v>
       </c>
-      <c r="M330" s="5">
-        <v>1.0489999999999999</v>
+      <c r="M330" s="6">
+        <v>1049</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14150,7 +14164,7 @@
       <c r="L331" s="4">
         <v>15</v>
       </c>
-      <c r="M331" s="5">
+      <c r="M331" s="8">
         <v>951</v>
       </c>
     </row>
@@ -14191,7 +14205,7 @@
       <c r="L332" s="4">
         <v>14</v>
       </c>
-      <c r="M332" s="5">
+      <c r="M332" s="8">
         <v>930</v>
       </c>
     </row>
@@ -14230,7 +14244,7 @@
       <c r="L333" s="4">
         <v>11</v>
       </c>
-      <c r="M333" s="5">
+      <c r="M333" s="8">
         <v>927</v>
       </c>
     </row>
@@ -14271,7 +14285,7 @@
       <c r="L334" s="4">
         <v>15</v>
       </c>
-      <c r="M334" s="5">
+      <c r="M334" s="8">
         <v>851</v>
       </c>
     </row>
@@ -14310,7 +14324,7 @@
       <c r="L335" s="4">
         <v>13</v>
       </c>
-      <c r="M335" s="5">
+      <c r="M335" s="8">
         <v>824</v>
       </c>
     </row>
@@ -14351,7 +14365,7 @@
       <c r="L336" s="4">
         <v>7</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="8">
         <v>639</v>
       </c>
     </row>
@@ -14390,7 +14404,7 @@
       <c r="L337" s="4">
         <v>14</v>
       </c>
-      <c r="M337" s="5">
+      <c r="M337" s="8">
         <v>636</v>
       </c>
     </row>
@@ -14431,7 +14445,7 @@
       <c r="L338" s="4">
         <v>4</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="8">
         <v>410</v>
       </c>
     </row>
@@ -14470,7 +14484,7 @@
       <c r="L339" s="4">
         <v>7</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="8">
         <v>518</v>
       </c>
     </row>
@@ -14511,7 +14525,7 @@
       <c r="L340" s="4">
         <v>4</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="8">
         <v>470</v>
       </c>
     </row>
@@ -14550,7 +14564,7 @@
       <c r="L341" s="4">
         <v>10</v>
       </c>
-      <c r="M341" s="5">
+      <c r="M341" s="8">
         <v>679</v>
       </c>
     </row>
@@ -14558,46 +14572,46 @@
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="8">
         <v>284</v>
       </c>
-      <c r="D342" s="5">
+      <c r="D342" s="8">
         <v>884</v>
       </c>
-      <c r="E342" s="5">
-        <v>6.09</v>
-      </c>
-      <c r="F342" s="5">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="G342" s="5">
-        <v>3.6880000000000002</v>
-      </c>
-      <c r="H342" s="5">
-        <v>5.8019999999999996</v>
-      </c>
-      <c r="I342" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="E342" s="6">
+        <v>6090</v>
+      </c>
+      <c r="F342" s="6">
+        <v>2763</v>
+      </c>
+      <c r="G342" s="6">
+        <v>3688</v>
+      </c>
+      <c r="H342" s="6">
+        <v>5802</v>
+      </c>
+      <c r="I342" s="6">
+        <v>2300</v>
+      </c>
+      <c r="J342" s="8">
         <v>121</v>
       </c>
-      <c r="K342" s="5">
-        <v>15</v>
-      </c>
-      <c r="L342" s="5">
+      <c r="K342" s="8">
+        <v>15</v>
+      </c>
+      <c r="L342" s="8">
         <v>285</v>
       </c>
-      <c r="M342" s="5">
-        <v>22.231999999999999</v>
+      <c r="M342" s="6">
+        <v>22232</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14669,7 +14683,7 @@
       <c r="L344" s="4">
         <v>8</v>
       </c>
-      <c r="M344" s="5">
+      <c r="M344" s="8">
         <v>977</v>
       </c>
     </row>
@@ -14708,7 +14722,7 @@
       <c r="L345" s="4">
         <v>2</v>
       </c>
-      <c r="M345" s="5">
+      <c r="M345" s="8">
         <v>931</v>
       </c>
     </row>
@@ -14749,7 +14763,7 @@
       <c r="L346" s="4">
         <v>2</v>
       </c>
-      <c r="M346" s="5">
+      <c r="M346" s="8">
         <v>613</v>
       </c>
     </row>
@@ -14788,7 +14802,7 @@
       <c r="L347" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M347" s="5">
+      <c r="M347" s="8">
         <v>579</v>
       </c>
     </row>
@@ -14829,7 +14843,7 @@
       <c r="L348" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M348" s="5">
+      <c r="M348" s="8">
         <v>524</v>
       </c>
     </row>
@@ -14868,7 +14882,7 @@
       <c r="L349" s="4">
         <v>3</v>
       </c>
-      <c r="M349" s="5">
+      <c r="M349" s="8">
         <v>528</v>
       </c>
     </row>
@@ -14909,7 +14923,7 @@
       <c r="L350" s="4">
         <v>2</v>
       </c>
-      <c r="M350" s="5">
+      <c r="M350" s="8">
         <v>645</v>
       </c>
     </row>
@@ -14948,7 +14962,7 @@
       <c r="L351" s="4">
         <v>3</v>
       </c>
-      <c r="M351" s="5">
+      <c r="M351" s="8">
         <v>569</v>
       </c>
     </row>
@@ -14989,7 +15003,7 @@
       <c r="L352" s="4">
         <v>3</v>
       </c>
-      <c r="M352" s="5">
+      <c r="M352" s="8">
         <v>703</v>
       </c>
     </row>
@@ -15028,7 +15042,7 @@
       <c r="L353" s="4">
         <v>4</v>
       </c>
-      <c r="M353" s="5">
+      <c r="M353" s="8">
         <v>649</v>
       </c>
     </row>
@@ -15069,7 +15083,7 @@
       <c r="L354" s="4">
         <v>2</v>
       </c>
-      <c r="M354" s="5">
+      <c r="M354" s="8">
         <v>706</v>
       </c>
     </row>
@@ -15108,7 +15122,7 @@
       <c r="L355" s="4">
         <v>3</v>
       </c>
-      <c r="M355" s="5">
+      <c r="M355" s="8">
         <v>664</v>
       </c>
     </row>
@@ -15149,7 +15163,7 @@
       <c r="L356" s="4">
         <v>1</v>
       </c>
-      <c r="M356" s="5">
+      <c r="M356" s="8">
         <v>742</v>
       </c>
     </row>
@@ -15188,7 +15202,7 @@
       <c r="L357" s="4">
         <v>2</v>
       </c>
-      <c r="M357" s="5">
+      <c r="M357" s="8">
         <v>695</v>
       </c>
     </row>
@@ -15229,7 +15243,7 @@
       <c r="L358" s="4">
         <v>5</v>
       </c>
-      <c r="M358" s="5">
+      <c r="M358" s="8">
         <v>711</v>
       </c>
     </row>
@@ -15268,7 +15282,7 @@
       <c r="L359" s="4">
         <v>1</v>
       </c>
-      <c r="M359" s="5">
+      <c r="M359" s="8">
         <v>661</v>
       </c>
     </row>
@@ -15309,7 +15323,7 @@
       <c r="L360" s="4">
         <v>5</v>
       </c>
-      <c r="M360" s="5">
+      <c r="M360" s="8">
         <v>549</v>
       </c>
     </row>
@@ -15348,7 +15362,7 @@
       <c r="L361" s="4">
         <v>4</v>
       </c>
-      <c r="M361" s="5">
+      <c r="M361" s="8">
         <v>635</v>
       </c>
     </row>
@@ -15389,7 +15403,7 @@
       <c r="L362" s="4">
         <v>3</v>
       </c>
-      <c r="M362" s="5">
+      <c r="M362" s="8">
         <v>448</v>
       </c>
     </row>
@@ -15428,7 +15442,7 @@
       <c r="L363" s="4">
         <v>2</v>
       </c>
-      <c r="M363" s="5">
+      <c r="M363" s="8">
         <v>489</v>
       </c>
     </row>
@@ -15469,7 +15483,7 @@
       <c r="L364" s="4">
         <v>5</v>
       </c>
-      <c r="M364" s="5">
+      <c r="M364" s="8">
         <v>337</v>
       </c>
     </row>
@@ -15508,7 +15522,7 @@
       <c r="L365" s="4">
         <v>3</v>
       </c>
-      <c r="M365" s="5">
+      <c r="M365" s="8">
         <v>462</v>
       </c>
     </row>
@@ -15549,7 +15563,7 @@
       <c r="L366" s="4">
         <v>3</v>
       </c>
-      <c r="M366" s="5">
+      <c r="M366" s="8">
         <v>463</v>
       </c>
     </row>
@@ -15588,7 +15602,7 @@
       <c r="L367" s="4">
         <v>1</v>
       </c>
-      <c r="M367" s="5">
+      <c r="M367" s="8">
         <v>759</v>
       </c>
     </row>
@@ -15596,46 +15610,46 @@
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
+      <c r="B368" s="7"/>
+      <c r="C368" s="8">
         <v>214</v>
       </c>
-      <c r="D368" s="5">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="E368" s="5">
-        <v>5.5460000000000003</v>
-      </c>
-      <c r="F368" s="5">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="G368" s="5">
-        <v>2.141</v>
-      </c>
-      <c r="H368" s="5">
-        <v>2.99</v>
-      </c>
-      <c r="I368" s="5">
-        <v>1.571</v>
-      </c>
-      <c r="J368" s="5">
+      <c r="D368" s="6">
+        <v>1037</v>
+      </c>
+      <c r="E368" s="6">
+        <v>5546</v>
+      </c>
+      <c r="F368" s="6">
+        <v>1317</v>
+      </c>
+      <c r="G368" s="6">
+        <v>2141</v>
+      </c>
+      <c r="H368" s="6">
+        <v>2990</v>
+      </c>
+      <c r="I368" s="6">
+        <v>1571</v>
+      </c>
+      <c r="J368" s="8">
         <v>145</v>
       </c>
-      <c r="K368" s="5">
+      <c r="K368" s="8">
         <v>11</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="8">
         <v>67</v>
       </c>
-      <c r="M368" s="5">
-        <v>15.039</v>
+      <c r="M368" s="6">
+        <v>15039</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -15689,14 +15703,14 @@
       <c r="F370" s="4">
         <v>3</v>
       </c>
-      <c r="G370" s="4">
-        <v>3.9350000000000001</v>
-      </c>
-      <c r="H370" s="4">
-        <v>10.167999999999999</v>
-      </c>
-      <c r="I370" s="4">
-        <v>1.7529999999999999</v>
+      <c r="G370" s="5">
+        <v>3935</v>
+      </c>
+      <c r="H370" s="5">
+        <v>10168</v>
+      </c>
+      <c r="I370" s="5">
+        <v>1753</v>
       </c>
       <c r="J370" s="4">
         <v>26</v>
@@ -15707,8 +15721,8 @@
       <c r="L370" s="4">
         <v>99</v>
       </c>
-      <c r="M370" s="5">
-        <v>16.055</v>
+      <c r="M370" s="6">
+        <v>16055</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15728,14 +15742,14 @@
       <c r="F371" s="4">
         <v>2</v>
       </c>
-      <c r="G371" s="4">
-        <v>2.6040000000000001</v>
-      </c>
-      <c r="H371" s="4">
-        <v>10.419</v>
-      </c>
-      <c r="I371" s="4">
-        <v>2.8479999999999999</v>
+      <c r="G371" s="5">
+        <v>2604</v>
+      </c>
+      <c r="H371" s="5">
+        <v>10419</v>
+      </c>
+      <c r="I371" s="5">
+        <v>2848</v>
       </c>
       <c r="J371" s="4">
         <v>27</v>
@@ -15746,8 +15760,8 @@
       <c r="L371" s="4">
         <v>45</v>
       </c>
-      <c r="M371" s="5">
-        <v>16.024000000000001</v>
+      <c r="M371" s="6">
+        <v>16024</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15769,14 +15783,14 @@
       <c r="F372" s="4">
         <v>39</v>
       </c>
-      <c r="G372" s="4">
-        <v>2.5710000000000002</v>
-      </c>
-      <c r="H372" s="4">
-        <v>3.427</v>
-      </c>
-      <c r="I372" s="4">
-        <v>4.6970000000000001</v>
+      <c r="G372" s="5">
+        <v>2571</v>
+      </c>
+      <c r="H372" s="5">
+        <v>3427</v>
+      </c>
+      <c r="I372" s="5">
+        <v>4697</v>
       </c>
       <c r="J372" s="4">
         <v>329</v>
@@ -15787,8 +15801,8 @@
       <c r="L372" s="4">
         <v>65</v>
       </c>
-      <c r="M372" s="5">
-        <v>11.196</v>
+      <c r="M372" s="6">
+        <v>11196</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15808,14 +15822,14 @@
       <c r="F373" s="4">
         <v>90</v>
       </c>
-      <c r="G373" s="4">
-        <v>1.8129999999999999</v>
-      </c>
-      <c r="H373" s="4">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="I373" s="4">
-        <v>6.4269999999999996</v>
+      <c r="G373" s="5">
+        <v>1813</v>
+      </c>
+      <c r="H373" s="5">
+        <v>2813</v>
+      </c>
+      <c r="I373" s="5">
+        <v>6427</v>
       </c>
       <c r="J373" s="4">
         <v>518</v>
@@ -15826,8 +15840,8 @@
       <c r="L373" s="4">
         <v>53</v>
       </c>
-      <c r="M373" s="5">
-        <v>11.983000000000001</v>
+      <c r="M373" s="6">
+        <v>11983</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15846,17 +15860,17 @@
       <c r="E374" s="4">
         <v>57</v>
       </c>
-      <c r="F374" s="4">
-        <v>1.327</v>
-      </c>
-      <c r="G374" s="4">
-        <v>1.069</v>
-      </c>
-      <c r="H374" s="4">
-        <v>3.6419999999999999</v>
-      </c>
-      <c r="I374" s="4">
-        <v>4.6269999999999998</v>
+      <c r="F374" s="5">
+        <v>1327</v>
+      </c>
+      <c r="G374" s="5">
+        <v>1069</v>
+      </c>
+      <c r="H374" s="5">
+        <v>3642</v>
+      </c>
+      <c r="I374" s="5">
+        <v>4627</v>
       </c>
       <c r="J374" s="4">
         <v>557</v>
@@ -15867,8 +15881,8 @@
       <c r="L374" s="4">
         <v>60</v>
       </c>
-      <c r="M374" s="5">
-        <v>11.454000000000001</v>
+      <c r="M374" s="6">
+        <v>11454</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15885,17 +15899,17 @@
       <c r="E375" s="4">
         <v>142</v>
       </c>
-      <c r="F375" s="4">
-        <v>1.4850000000000001</v>
+      <c r="F375" s="5">
+        <v>1485</v>
       </c>
       <c r="G375" s="4">
         <v>871</v>
       </c>
-      <c r="H375" s="4">
-        <v>3.27</v>
-      </c>
-      <c r="I375" s="4">
-        <v>5.9409999999999998</v>
+      <c r="H375" s="5">
+        <v>3270</v>
+      </c>
+      <c r="I375" s="5">
+        <v>5941</v>
       </c>
       <c r="J375" s="4">
         <v>751</v>
@@ -15906,8 +15920,8 @@
       <c r="L375" s="4">
         <v>78</v>
       </c>
-      <c r="M375" s="5">
-        <v>12.829000000000001</v>
+      <c r="M375" s="6">
+        <v>12829</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15926,17 +15940,17 @@
       <c r="E376" s="4">
         <v>575</v>
       </c>
-      <c r="F376" s="4">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="G376" s="4">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="H376" s="4">
-        <v>4.3330000000000002</v>
-      </c>
-      <c r="I376" s="4">
-        <v>4.3639999999999999</v>
+      <c r="F376" s="5">
+        <v>1876</v>
+      </c>
+      <c r="G376" s="5">
+        <v>1074</v>
+      </c>
+      <c r="H376" s="5">
+        <v>4333</v>
+      </c>
+      <c r="I376" s="5">
+        <v>4364</v>
       </c>
       <c r="J376" s="4">
         <v>708</v>
@@ -15947,8 +15961,8 @@
       <c r="L376" s="4">
         <v>64</v>
       </c>
-      <c r="M376" s="5">
-        <v>13.13</v>
+      <c r="M376" s="6">
+        <v>13130</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15962,20 +15976,20 @@
       <c r="D377" s="4">
         <v>123</v>
       </c>
-      <c r="E377" s="4">
-        <v>1.228</v>
-      </c>
-      <c r="F377" s="4">
-        <v>1.84</v>
-      </c>
-      <c r="G377" s="4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H377" s="4">
-        <v>4.2080000000000002</v>
-      </c>
-      <c r="I377" s="4">
-        <v>4.9400000000000004</v>
+      <c r="E377" s="5">
+        <v>1228</v>
+      </c>
+      <c r="F377" s="5">
+        <v>1840</v>
+      </c>
+      <c r="G377" s="5">
+        <v>1160</v>
+      </c>
+      <c r="H377" s="5">
+        <v>4208</v>
+      </c>
+      <c r="I377" s="5">
+        <v>4940</v>
       </c>
       <c r="J377" s="4">
         <v>810</v>
@@ -15986,8 +16000,8 @@
       <c r="L377" s="4">
         <v>78</v>
       </c>
-      <c r="M377" s="5">
-        <v>14.529</v>
+      <c r="M377" s="6">
+        <v>14529</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16003,20 +16017,20 @@
       <c r="D378" s="4">
         <v>28</v>
       </c>
-      <c r="E378" s="4">
-        <v>1.292</v>
-      </c>
-      <c r="F378" s="4">
-        <v>1.641</v>
-      </c>
-      <c r="G378" s="4">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="H378" s="4">
-        <v>4.7140000000000004</v>
-      </c>
-      <c r="I378" s="4">
-        <v>4.2770000000000001</v>
+      <c r="E378" s="5">
+        <v>1292</v>
+      </c>
+      <c r="F378" s="5">
+        <v>1641</v>
+      </c>
+      <c r="G378" s="5">
+        <v>1967</v>
+      </c>
+      <c r="H378" s="5">
+        <v>4714</v>
+      </c>
+      <c r="I378" s="5">
+        <v>4277</v>
       </c>
       <c r="J378" s="4">
         <v>768</v>
@@ -16027,8 +16041,8 @@
       <c r="L378" s="4">
         <v>75</v>
       </c>
-      <c r="M378" s="5">
-        <v>14.911</v>
+      <c r="M378" s="6">
+        <v>14911</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16042,20 +16056,20 @@
       <c r="D379" s="4">
         <v>129</v>
       </c>
-      <c r="E379" s="4">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="F379" s="4">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="G379" s="4">
-        <v>1.843</v>
-      </c>
-      <c r="H379" s="4">
-        <v>4.6479999999999997</v>
-      </c>
-      <c r="I379" s="4">
-        <v>4.3940000000000001</v>
+      <c r="E379" s="5">
+        <v>2204</v>
+      </c>
+      <c r="F379" s="5">
+        <v>1711</v>
+      </c>
+      <c r="G379" s="5">
+        <v>1843</v>
+      </c>
+      <c r="H379" s="5">
+        <v>4648</v>
+      </c>
+      <c r="I379" s="5">
+        <v>4394</v>
       </c>
       <c r="J379" s="4">
         <v>752</v>
@@ -16066,8 +16080,8 @@
       <c r="L379" s="4">
         <v>72</v>
       </c>
-      <c r="M379" s="5">
-        <v>15.942</v>
+      <c r="M379" s="6">
+        <v>15942</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16083,20 +16097,20 @@
       <c r="D380" s="4">
         <v>19</v>
       </c>
-      <c r="E380" s="4">
-        <v>1.544</v>
-      </c>
-      <c r="F380" s="4">
-        <v>1.837</v>
-      </c>
-      <c r="G380" s="4">
-        <v>1.4710000000000001</v>
-      </c>
-      <c r="H380" s="4">
-        <v>3.6579999999999999</v>
-      </c>
-      <c r="I380" s="4">
-        <v>3.589</v>
+      <c r="E380" s="5">
+        <v>1544</v>
+      </c>
+      <c r="F380" s="5">
+        <v>1837</v>
+      </c>
+      <c r="G380" s="5">
+        <v>1471</v>
+      </c>
+      <c r="H380" s="5">
+        <v>3658</v>
+      </c>
+      <c r="I380" s="5">
+        <v>3589</v>
       </c>
       <c r="J380" s="4">
         <v>531</v>
@@ -16107,8 +16121,8 @@
       <c r="L380" s="4">
         <v>71</v>
       </c>
-      <c r="M380" s="5">
-        <v>12.903</v>
+      <c r="M380" s="6">
+        <v>12903</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16122,20 +16136,20 @@
       <c r="D381" s="4">
         <v>117</v>
       </c>
-      <c r="E381" s="4">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="F381" s="4">
-        <v>1.958</v>
-      </c>
-      <c r="G381" s="4">
-        <v>1.4830000000000001</v>
-      </c>
-      <c r="H381" s="4">
-        <v>3.5649999999999999</v>
-      </c>
-      <c r="I381" s="4">
-        <v>2.8650000000000002</v>
+      <c r="E381" s="5">
+        <v>2584</v>
+      </c>
+      <c r="F381" s="5">
+        <v>1958</v>
+      </c>
+      <c r="G381" s="5">
+        <v>1483</v>
+      </c>
+      <c r="H381" s="5">
+        <v>3565</v>
+      </c>
+      <c r="I381" s="5">
+        <v>2865</v>
       </c>
       <c r="J381" s="4">
         <v>374</v>
@@ -16146,8 +16160,8 @@
       <c r="L381" s="4">
         <v>85</v>
       </c>
-      <c r="M381" s="5">
-        <v>13.201000000000001</v>
+      <c r="M381" s="6">
+        <v>13201</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16163,20 +16177,20 @@
       <c r="D382" s="4">
         <v>21</v>
       </c>
-      <c r="E382" s="4">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="F382" s="4">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="G382" s="4">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="H382" s="4">
-        <v>2.7770000000000001</v>
-      </c>
-      <c r="I382" s="4">
-        <v>2.5859999999999999</v>
+      <c r="E382" s="5">
+        <v>1547</v>
+      </c>
+      <c r="F382" s="5">
+        <v>1864</v>
+      </c>
+      <c r="G382" s="5">
+        <v>1539</v>
+      </c>
+      <c r="H382" s="5">
+        <v>2777</v>
+      </c>
+      <c r="I382" s="5">
+        <v>2586</v>
       </c>
       <c r="J382" s="4">
         <v>394</v>
@@ -16187,8 +16201,8 @@
       <c r="L382" s="4">
         <v>94</v>
       </c>
-      <c r="M382" s="5">
-        <v>10.981</v>
+      <c r="M382" s="6">
+        <v>10981</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16202,20 +16216,20 @@
       <c r="D383" s="4">
         <v>150</v>
       </c>
-      <c r="E383" s="4">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="F383" s="4">
-        <v>1.591</v>
-      </c>
-      <c r="G383" s="4">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="H383" s="4">
-        <v>2.4969999999999999</v>
-      </c>
-      <c r="I383" s="4">
-        <v>1.8240000000000001</v>
+      <c r="E383" s="5">
+        <v>3015</v>
+      </c>
+      <c r="F383" s="5">
+        <v>1591</v>
+      </c>
+      <c r="G383" s="5">
+        <v>1305</v>
+      </c>
+      <c r="H383" s="5">
+        <v>2497</v>
+      </c>
+      <c r="I383" s="5">
+        <v>1824</v>
       </c>
       <c r="J383" s="4">
         <v>189</v>
@@ -16226,8 +16240,8 @@
       <c r="L383" s="4">
         <v>130</v>
       </c>
-      <c r="M383" s="5">
-        <v>10.839</v>
+      <c r="M383" s="6">
+        <v>10839</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16243,20 +16257,20 @@
       <c r="D384" s="4">
         <v>47</v>
       </c>
-      <c r="E384" s="4">
-        <v>1.879</v>
-      </c>
-      <c r="F384" s="4">
-        <v>1.512</v>
-      </c>
-      <c r="G384" s="4">
-        <v>1.306</v>
-      </c>
-      <c r="H384" s="4">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="I384" s="4">
-        <v>1.9770000000000001</v>
+      <c r="E384" s="5">
+        <v>1879</v>
+      </c>
+      <c r="F384" s="5">
+        <v>1512</v>
+      </c>
+      <c r="G384" s="5">
+        <v>1306</v>
+      </c>
+      <c r="H384" s="5">
+        <v>2196</v>
+      </c>
+      <c r="I384" s="5">
+        <v>1977</v>
       </c>
       <c r="J384" s="4">
         <v>201</v>
@@ -16267,8 +16281,8 @@
       <c r="L384" s="4">
         <v>134</v>
       </c>
-      <c r="M384" s="5">
-        <v>9.3849999999999998</v>
+      <c r="M384" s="6">
+        <v>9385</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16282,20 +16296,20 @@
       <c r="D385" s="4">
         <v>199</v>
       </c>
-      <c r="E385" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="F385" s="4">
-        <v>1.1180000000000001</v>
+      <c r="E385" s="5">
+        <v>3600</v>
+      </c>
+      <c r="F385" s="5">
+        <v>1118</v>
       </c>
       <c r="G385" s="4">
         <v>961</v>
       </c>
-      <c r="H385" s="4">
-        <v>2.0840000000000001</v>
-      </c>
-      <c r="I385" s="4">
-        <v>1.224</v>
+      <c r="H385" s="5">
+        <v>2084</v>
+      </c>
+      <c r="I385" s="5">
+        <v>1224</v>
       </c>
       <c r="J385" s="4">
         <v>79</v>
@@ -16306,8 +16320,8 @@
       <c r="L385" s="4">
         <v>159</v>
       </c>
-      <c r="M385" s="5">
-        <v>9.5909999999999993</v>
+      <c r="M385" s="6">
+        <v>9591</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16323,8 +16337,8 @@
       <c r="D386" s="4">
         <v>51</v>
       </c>
-      <c r="E386" s="4">
-        <v>2.4910000000000001</v>
+      <c r="E386" s="5">
+        <v>2491</v>
       </c>
       <c r="F386" s="4">
         <v>873</v>
@@ -16332,11 +16346,11 @@
       <c r="G386" s="4">
         <v>903</v>
       </c>
-      <c r="H386" s="4">
-        <v>1.8560000000000001</v>
-      </c>
-      <c r="I386" s="4">
-        <v>1.3460000000000001</v>
+      <c r="H386" s="5">
+        <v>1856</v>
+      </c>
+      <c r="I386" s="5">
+        <v>1346</v>
       </c>
       <c r="J386" s="4">
         <v>116</v>
@@ -16347,8 +16361,8 @@
       <c r="L386" s="4">
         <v>132</v>
       </c>
-      <c r="M386" s="5">
-        <v>7.8369999999999997</v>
+      <c r="M386" s="6">
+        <v>7837</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16362,8 +16376,8 @@
       <c r="D387" s="4">
         <v>321</v>
       </c>
-      <c r="E387" s="4">
-        <v>3.9860000000000002</v>
+      <c r="E387" s="5">
+        <v>3986</v>
       </c>
       <c r="F387" s="4">
         <v>566</v>
@@ -16371,8 +16385,8 @@
       <c r="G387" s="4">
         <v>567</v>
       </c>
-      <c r="H387" s="4">
-        <v>1.546</v>
+      <c r="H387" s="5">
+        <v>1546</v>
       </c>
       <c r="I387" s="4">
         <v>756</v>
@@ -16386,8 +16400,8 @@
       <c r="L387" s="4">
         <v>134</v>
       </c>
-      <c r="M387" s="5">
-        <v>8.1129999999999995</v>
+      <c r="M387" s="6">
+        <v>8113</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16403,8 +16417,8 @@
       <c r="D388" s="4">
         <v>74</v>
       </c>
-      <c r="E388" s="4">
-        <v>2.4489999999999998</v>
+      <c r="E388" s="5">
+        <v>2449</v>
       </c>
       <c r="F388" s="4">
         <v>311</v>
@@ -16412,11 +16426,11 @@
       <c r="G388" s="4">
         <v>696</v>
       </c>
-      <c r="H388" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="I388" s="4">
-        <v>1.2909999999999999</v>
+      <c r="H388" s="5">
+        <v>1016</v>
+      </c>
+      <c r="I388" s="5">
+        <v>1291</v>
       </c>
       <c r="J388" s="4">
         <v>58</v>
@@ -16427,8 +16441,8 @@
       <c r="L388" s="4">
         <v>119</v>
       </c>
-      <c r="M388" s="5">
-        <v>6.069</v>
+      <c r="M388" s="6">
+        <v>6069</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16442,8 +16456,8 @@
       <c r="D389" s="4">
         <v>496</v>
       </c>
-      <c r="E389" s="4">
-        <v>3.4209999999999998</v>
+      <c r="E389" s="5">
+        <v>3421</v>
       </c>
       <c r="F389" s="4">
         <v>179</v>
@@ -16466,8 +16480,8 @@
       <c r="L389" s="4">
         <v>96</v>
       </c>
-      <c r="M389" s="5">
-        <v>6.2279999999999998</v>
+      <c r="M389" s="6">
+        <v>6228</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16483,8 +16497,8 @@
       <c r="D390" s="4">
         <v>84</v>
       </c>
-      <c r="E390" s="4">
-        <v>1.9239999999999999</v>
+      <c r="E390" s="5">
+        <v>1924</v>
       </c>
       <c r="F390" s="4">
         <v>121</v>
@@ -16507,8 +16521,8 @@
       <c r="L390" s="4">
         <v>71</v>
       </c>
-      <c r="M390" s="5">
-        <v>3.972</v>
+      <c r="M390" s="6">
+        <v>3972</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16522,8 +16536,8 @@
       <c r="D391" s="4">
         <v>693</v>
       </c>
-      <c r="E391" s="4">
-        <v>2.2690000000000001</v>
+      <c r="E391" s="5">
+        <v>2269</v>
       </c>
       <c r="F391" s="4">
         <v>37</v>
@@ -16546,8 +16560,8 @@
       <c r="L391" s="4">
         <v>100</v>
       </c>
-      <c r="M391" s="5">
-        <v>4.173</v>
+      <c r="M391" s="6">
+        <v>4173</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16563,8 +16577,8 @@
       <c r="D392" s="4">
         <v>243</v>
       </c>
-      <c r="E392" s="4">
-        <v>2.073</v>
+      <c r="E392" s="5">
+        <v>2073</v>
       </c>
       <c r="F392" s="4">
         <v>34</v>
@@ -16587,8 +16601,8 @@
       <c r="L392" s="4">
         <v>103</v>
       </c>
-      <c r="M392" s="5">
-        <v>3.6930000000000001</v>
+      <c r="M392" s="6">
+        <v>3693</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16599,11 +16613,11 @@
       <c r="C393" s="4">
         <v>670</v>
       </c>
-      <c r="D393" s="4">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="E393" s="4">
-        <v>2.113</v>
+      <c r="D393" s="5">
+        <v>1807</v>
+      </c>
+      <c r="E393" s="5">
+        <v>2113</v>
       </c>
       <c r="F393" s="4">
         <v>15</v>
@@ -16626,54 +16640,54 @@
       <c r="L393" s="4">
         <v>90</v>
       </c>
-      <c r="M393" s="5">
-        <v>5.17</v>
+      <c r="M393" s="6">
+        <v>5170</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>1.986</v>
-      </c>
-      <c r="D394" s="5">
-        <v>5.0910000000000002</v>
-      </c>
-      <c r="E394" s="5">
-        <v>40.683</v>
-      </c>
-      <c r="F394" s="5">
-        <v>22.03</v>
-      </c>
-      <c r="G394" s="5">
-        <v>30.462</v>
-      </c>
-      <c r="H394" s="5">
-        <v>75.11</v>
-      </c>
-      <c r="I394" s="5">
-        <v>63.988</v>
-      </c>
-      <c r="J394" s="5">
-        <v>7.3280000000000003</v>
-      </c>
-      <c r="K394" s="5">
-        <v>1.323</v>
-      </c>
-      <c r="L394" s="5">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="M394" s="5">
-        <v>250.208</v>
+      <c r="B394" s="7"/>
+      <c r="C394" s="6">
+        <v>1986</v>
+      </c>
+      <c r="D394" s="6">
+        <v>5091</v>
+      </c>
+      <c r="E394" s="6">
+        <v>40683</v>
+      </c>
+      <c r="F394" s="6">
+        <v>22030</v>
+      </c>
+      <c r="G394" s="6">
+        <v>30462</v>
+      </c>
+      <c r="H394" s="6">
+        <v>75110</v>
+      </c>
+      <c r="I394" s="6">
+        <v>63988</v>
+      </c>
+      <c r="J394" s="6">
+        <v>7328</v>
+      </c>
+      <c r="K394" s="6">
+        <v>1323</v>
+      </c>
+      <c r="L394" s="6">
+        <v>2207</v>
+      </c>
+      <c r="M394" s="6">
+        <v>250208</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="9"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -16727,14 +16741,14 @@
       <c r="F396" s="4">
         <v>3</v>
       </c>
-      <c r="G396" s="4">
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="H396" s="4">
-        <v>10.776</v>
-      </c>
-      <c r="I396" s="4">
-        <v>2.0089999999999999</v>
+      <c r="G396" s="5">
+        <v>4064</v>
+      </c>
+      <c r="H396" s="5">
+        <v>10776</v>
+      </c>
+      <c r="I396" s="5">
+        <v>2009</v>
       </c>
       <c r="J396" s="4">
         <v>26</v>
@@ -16745,8 +16759,8 @@
       <c r="L396" s="4">
         <v>164</v>
       </c>
-      <c r="M396" s="5">
-        <v>17.111999999999998</v>
+      <c r="M396" s="6">
+        <v>17112</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -16766,14 +16780,14 @@
       <c r="F397" s="4">
         <v>2</v>
       </c>
-      <c r="G397" s="4">
-        <v>2.7010000000000001</v>
-      </c>
-      <c r="H397" s="4">
-        <v>10.757</v>
-      </c>
-      <c r="I397" s="4">
-        <v>3.3460000000000001</v>
+      <c r="G397" s="5">
+        <v>2701</v>
+      </c>
+      <c r="H397" s="5">
+        <v>10757</v>
+      </c>
+      <c r="I397" s="5">
+        <v>3346</v>
       </c>
       <c r="J397" s="4">
         <v>30</v>
@@ -16784,8 +16798,8 @@
       <c r="L397" s="4">
         <v>77</v>
       </c>
-      <c r="M397" s="5">
-        <v>17.004999999999999</v>
+      <c r="M397" s="6">
+        <v>17005</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -16807,14 +16821,14 @@
       <c r="F398" s="4">
         <v>40</v>
       </c>
-      <c r="G398" s="4">
-        <v>3.1059999999999999</v>
-      </c>
-      <c r="H398" s="4">
-        <v>4.4249999999999998</v>
-      </c>
-      <c r="I398" s="4">
-        <v>4.7919999999999998</v>
+      <c r="G398" s="5">
+        <v>3106</v>
+      </c>
+      <c r="H398" s="5">
+        <v>4425</v>
+      </c>
+      <c r="I398" s="5">
+        <v>4792</v>
       </c>
       <c r="J398" s="4">
         <v>403</v>
@@ -16825,8 +16839,8 @@
       <c r="L398" s="4">
         <v>73</v>
       </c>
-      <c r="M398" s="5">
-        <v>12.894</v>
+      <c r="M398" s="6">
+        <v>12894</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -16846,14 +16860,14 @@
       <c r="F399" s="4">
         <v>93</v>
       </c>
-      <c r="G399" s="4">
-        <v>2.242</v>
-      </c>
-      <c r="H399" s="4">
-        <v>3.2450000000000001</v>
-      </c>
-      <c r="I399" s="4">
-        <v>6.2080000000000002</v>
+      <c r="G399" s="5">
+        <v>2242</v>
+      </c>
+      <c r="H399" s="5">
+        <v>3245</v>
+      </c>
+      <c r="I399" s="5">
+        <v>6208</v>
       </c>
       <c r="J399" s="4">
         <v>547</v>
@@ -16864,8 +16878,8 @@
       <c r="L399" s="4">
         <v>74</v>
       </c>
-      <c r="M399" s="5">
-        <v>12.617000000000001</v>
+      <c r="M399" s="6">
+        <v>12617</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -16884,17 +16898,17 @@
       <c r="E400" s="4">
         <v>42</v>
       </c>
-      <c r="F400" s="4">
-        <v>1.798</v>
-      </c>
-      <c r="G400" s="4">
-        <v>1.282</v>
-      </c>
-      <c r="H400" s="4">
-        <v>4.2169999999999996</v>
-      </c>
-      <c r="I400" s="4">
-        <v>4.1239999999999997</v>
+      <c r="F400" s="5">
+        <v>1798</v>
+      </c>
+      <c r="G400" s="5">
+        <v>1282</v>
+      </c>
+      <c r="H400" s="5">
+        <v>4217</v>
+      </c>
+      <c r="I400" s="5">
+        <v>4124</v>
       </c>
       <c r="J400" s="4">
         <v>502</v>
@@ -16905,8 +16919,8 @@
       <c r="L400" s="4">
         <v>80</v>
       </c>
-      <c r="M400" s="5">
-        <v>12.148999999999999</v>
+      <c r="M400" s="6">
+        <v>12149</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -16923,17 +16937,17 @@
       <c r="E401" s="4">
         <v>119</v>
       </c>
-      <c r="F401" s="4">
-        <v>1.925</v>
-      </c>
-      <c r="G401" s="4">
-        <v>1.077</v>
-      </c>
-      <c r="H401" s="4">
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="I401" s="4">
-        <v>4.6360000000000001</v>
+      <c r="F401" s="5">
+        <v>1925</v>
+      </c>
+      <c r="G401" s="5">
+        <v>1077</v>
+      </c>
+      <c r="H401" s="5">
+        <v>3322</v>
+      </c>
+      <c r="I401" s="5">
+        <v>4636</v>
       </c>
       <c r="J401" s="4">
         <v>574</v>
@@ -16944,8 +16958,8 @@
       <c r="L401" s="4">
         <v>77</v>
       </c>
-      <c r="M401" s="5">
-        <v>11.942</v>
+      <c r="M401" s="6">
+        <v>11942</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -16964,17 +16978,17 @@
       <c r="E402" s="4">
         <v>663</v>
       </c>
-      <c r="F402" s="4">
-        <v>2.3210000000000002</v>
-      </c>
-      <c r="G402" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="H402" s="4">
-        <v>4.859</v>
-      </c>
-      <c r="I402" s="4">
-        <v>3.2890000000000001</v>
+      <c r="F402" s="5">
+        <v>2321</v>
+      </c>
+      <c r="G402" s="5">
+        <v>1280</v>
+      </c>
+      <c r="H402" s="5">
+        <v>4859</v>
+      </c>
+      <c r="I402" s="5">
+        <v>3289</v>
       </c>
       <c r="J402" s="4">
         <v>432</v>
@@ -16985,8 +16999,8 @@
       <c r="L402" s="4">
         <v>92</v>
       </c>
-      <c r="M402" s="5">
-        <v>13.06</v>
+      <c r="M402" s="6">
+        <v>13060</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -17000,20 +17014,20 @@
       <c r="D403" s="4">
         <v>66</v>
       </c>
-      <c r="E403" s="4">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="F403" s="4">
-        <v>2.5339999999999998</v>
-      </c>
-      <c r="G403" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="H403" s="4">
-        <v>3.9409999999999998</v>
-      </c>
-      <c r="I403" s="4">
-        <v>3.274</v>
+      <c r="E403" s="5">
+        <v>1447</v>
+      </c>
+      <c r="F403" s="5">
+        <v>2534</v>
+      </c>
+      <c r="G403" s="5">
+        <v>1290</v>
+      </c>
+      <c r="H403" s="5">
+        <v>3941</v>
+      </c>
+      <c r="I403" s="5">
+        <v>3274</v>
       </c>
       <c r="J403" s="4">
         <v>436</v>
@@ -17024,8 +17038,8 @@
       <c r="L403" s="4">
         <v>97</v>
       </c>
-      <c r="M403" s="5">
-        <v>13.225</v>
+      <c r="M403" s="6">
+        <v>13225</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17041,20 +17055,20 @@
       <c r="D404" s="4">
         <v>23</v>
       </c>
-      <c r="E404" s="4">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="F404" s="4">
-        <v>2.1259999999999999</v>
-      </c>
-      <c r="G404" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="H404" s="4">
-        <v>5.29</v>
-      </c>
-      <c r="I404" s="4">
-        <v>2.6970000000000001</v>
+      <c r="E404" s="5">
+        <v>1434</v>
+      </c>
+      <c r="F404" s="5">
+        <v>2126</v>
+      </c>
+      <c r="G404" s="5">
+        <v>2330</v>
+      </c>
+      <c r="H404" s="5">
+        <v>5290</v>
+      </c>
+      <c r="I404" s="5">
+        <v>2697</v>
       </c>
       <c r="J404" s="4">
         <v>401</v>
@@ -17065,8 +17079,8 @@
       <c r="L404" s="4">
         <v>71</v>
       </c>
-      <c r="M404" s="5">
-        <v>14.484999999999999</v>
+      <c r="M404" s="6">
+        <v>14485</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17080,20 +17094,20 @@
       <c r="D405" s="4">
         <v>86</v>
       </c>
-      <c r="E405" s="4">
-        <v>2.7010000000000001</v>
-      </c>
-      <c r="F405" s="4">
-        <v>2.2959999999999998</v>
-      </c>
-      <c r="G405" s="4">
-        <v>2.169</v>
-      </c>
-      <c r="H405" s="4">
-        <v>4.2590000000000003</v>
-      </c>
-      <c r="I405" s="4">
-        <v>2.6680000000000001</v>
+      <c r="E405" s="5">
+        <v>2701</v>
+      </c>
+      <c r="F405" s="5">
+        <v>2296</v>
+      </c>
+      <c r="G405" s="5">
+        <v>2169</v>
+      </c>
+      <c r="H405" s="5">
+        <v>4259</v>
+      </c>
+      <c r="I405" s="5">
+        <v>2668</v>
       </c>
       <c r="J405" s="4">
         <v>370</v>
@@ -17104,8 +17118,8 @@
       <c r="L405" s="4">
         <v>91</v>
       </c>
-      <c r="M405" s="5">
-        <v>14.795</v>
+      <c r="M405" s="6">
+        <v>14795</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -17121,20 +17135,20 @@
       <c r="D406" s="4">
         <v>15</v>
       </c>
-      <c r="E406" s="4">
-        <v>1.847</v>
-      </c>
-      <c r="F406" s="4">
-        <v>2.4980000000000002</v>
-      </c>
-      <c r="G406" s="4">
-        <v>1.837</v>
-      </c>
-      <c r="H406" s="4">
-        <v>4.0380000000000003</v>
-      </c>
-      <c r="I406" s="4">
-        <v>2.3929999999999998</v>
+      <c r="E406" s="5">
+        <v>1847</v>
+      </c>
+      <c r="F406" s="5">
+        <v>2498</v>
+      </c>
+      <c r="G406" s="5">
+        <v>1837</v>
+      </c>
+      <c r="H406" s="5">
+        <v>4038</v>
+      </c>
+      <c r="I406" s="5">
+        <v>2393</v>
       </c>
       <c r="J406" s="4">
         <v>274</v>
@@ -17145,8 +17159,8 @@
       <c r="L406" s="4">
         <v>111</v>
       </c>
-      <c r="M406" s="5">
-        <v>13.112</v>
+      <c r="M406" s="6">
+        <v>13112</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17160,20 +17174,20 @@
       <c r="D407" s="4">
         <v>72</v>
       </c>
-      <c r="E407" s="4">
-        <v>3.1659999999999999</v>
-      </c>
-      <c r="F407" s="4">
-        <v>2.5369999999999999</v>
-      </c>
-      <c r="G407" s="4">
-        <v>1.756</v>
-      </c>
-      <c r="H407" s="4">
-        <v>3.3140000000000001</v>
-      </c>
-      <c r="I407" s="4">
-        <v>1.8440000000000001</v>
+      <c r="E407" s="5">
+        <v>3166</v>
+      </c>
+      <c r="F407" s="5">
+        <v>2537</v>
+      </c>
+      <c r="G407" s="5">
+        <v>1756</v>
+      </c>
+      <c r="H407" s="5">
+        <v>3314</v>
+      </c>
+      <c r="I407" s="5">
+        <v>1844</v>
       </c>
       <c r="J407" s="4">
         <v>176</v>
@@ -17184,8 +17198,8 @@
       <c r="L407" s="4">
         <v>101</v>
       </c>
-      <c r="M407" s="5">
-        <v>13.1</v>
+      <c r="M407" s="6">
+        <v>13100</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -17201,20 +17215,20 @@
       <c r="D408" s="4">
         <v>19</v>
       </c>
-      <c r="E408" s="4">
-        <v>1.839</v>
-      </c>
-      <c r="F408" s="4">
-        <v>2.516</v>
-      </c>
-      <c r="G408" s="4">
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="H408" s="4">
-        <v>2.968</v>
-      </c>
-      <c r="I408" s="4">
-        <v>1.786</v>
+      <c r="E408" s="5">
+        <v>1839</v>
+      </c>
+      <c r="F408" s="5">
+        <v>2516</v>
+      </c>
+      <c r="G408" s="5">
+        <v>1815</v>
+      </c>
+      <c r="H408" s="5">
+        <v>2968</v>
+      </c>
+      <c r="I408" s="5">
+        <v>1786</v>
       </c>
       <c r="J408" s="4">
         <v>189</v>
@@ -17225,8 +17239,8 @@
       <c r="L408" s="4">
         <v>114</v>
       </c>
-      <c r="M408" s="5">
-        <v>11.363</v>
+      <c r="M408" s="6">
+        <v>11363</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -17240,20 +17254,20 @@
       <c r="D409" s="4">
         <v>119</v>
       </c>
-      <c r="E409" s="4">
-        <v>3.6219999999999999</v>
-      </c>
-      <c r="F409" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="G409" s="4">
-        <v>1.496</v>
-      </c>
-      <c r="H409" s="4">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="I409" s="4">
-        <v>1.107</v>
+      <c r="E409" s="5">
+        <v>3622</v>
+      </c>
+      <c r="F409" s="5">
+        <v>1940</v>
+      </c>
+      <c r="G409" s="5">
+        <v>1496</v>
+      </c>
+      <c r="H409" s="5">
+        <v>2358</v>
+      </c>
+      <c r="I409" s="5">
+        <v>1107</v>
       </c>
       <c r="J409" s="4">
         <v>122</v>
@@ -17264,8 +17278,8 @@
       <c r="L409" s="4">
         <v>142</v>
       </c>
-      <c r="M409" s="5">
-        <v>11.05</v>
+      <c r="M409" s="6">
+        <v>11050</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17281,20 +17295,20 @@
       <c r="D410" s="4">
         <v>31</v>
       </c>
-      <c r="E410" s="4">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="F410" s="4">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="G410" s="4">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="H410" s="4">
-        <v>2.274</v>
-      </c>
-      <c r="I410" s="4">
-        <v>1.3380000000000001</v>
+      <c r="E410" s="5">
+        <v>2267</v>
+      </c>
+      <c r="F410" s="5">
+        <v>1938</v>
+      </c>
+      <c r="G410" s="5">
+        <v>1434</v>
+      </c>
+      <c r="H410" s="5">
+        <v>2274</v>
+      </c>
+      <c r="I410" s="5">
+        <v>1338</v>
       </c>
       <c r="J410" s="4">
         <v>134</v>
@@ -17305,8 +17319,8 @@
       <c r="L410" s="4">
         <v>162</v>
       </c>
-      <c r="M410" s="5">
-        <v>9.6620000000000008</v>
+      <c r="M410" s="6">
+        <v>9662</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17320,17 +17334,17 @@
       <c r="D411" s="4">
         <v>176</v>
       </c>
-      <c r="E411" s="4">
-        <v>4.1230000000000002</v>
-      </c>
-      <c r="F411" s="4">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="G411" s="4">
-        <v>1.034</v>
-      </c>
-      <c r="H411" s="4">
-        <v>1.708</v>
+      <c r="E411" s="5">
+        <v>4123</v>
+      </c>
+      <c r="F411" s="5">
+        <v>1237</v>
+      </c>
+      <c r="G411" s="5">
+        <v>1034</v>
+      </c>
+      <c r="H411" s="5">
+        <v>1708</v>
       </c>
       <c r="I411" s="4">
         <v>783</v>
@@ -17344,8 +17358,8 @@
       <c r="L411" s="4">
         <v>146</v>
       </c>
-      <c r="M411" s="5">
-        <v>9.391</v>
+      <c r="M411" s="6">
+        <v>9391</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -17361,8 +17375,8 @@
       <c r="D412" s="4">
         <v>52</v>
       </c>
-      <c r="E412" s="4">
-        <v>2.7909999999999999</v>
+      <c r="E412" s="5">
+        <v>2791</v>
       </c>
       <c r="F412" s="4">
         <v>925</v>
@@ -17370,8 +17384,8 @@
       <c r="G412" s="4">
         <v>980</v>
       </c>
-      <c r="H412" s="4">
-        <v>1.635</v>
+      <c r="H412" s="5">
+        <v>1635</v>
       </c>
       <c r="I412" s="4">
         <v>929</v>
@@ -17385,8 +17399,8 @@
       <c r="L412" s="4">
         <v>143</v>
       </c>
-      <c r="M412" s="5">
-        <v>7.59</v>
+      <c r="M412" s="6">
+        <v>7590</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17400,8 +17414,8 @@
       <c r="D413" s="4">
         <v>291</v>
       </c>
-      <c r="E413" s="4">
-        <v>4.33</v>
+      <c r="E413" s="5">
+        <v>4330</v>
       </c>
       <c r="F413" s="4">
         <v>652</v>
@@ -17409,8 +17423,8 @@
       <c r="G413" s="4">
         <v>536</v>
       </c>
-      <c r="H413" s="4">
-        <v>1.321</v>
+      <c r="H413" s="5">
+        <v>1321</v>
       </c>
       <c r="I413" s="4">
         <v>588</v>
@@ -17424,8 +17438,8 @@
       <c r="L413" s="4">
         <v>151</v>
       </c>
-      <c r="M413" s="5">
-        <v>8.0640000000000001</v>
+      <c r="M413" s="6">
+        <v>8064</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -17441,8 +17455,8 @@
       <c r="D414" s="4">
         <v>73</v>
       </c>
-      <c r="E414" s="4">
-        <v>2.5910000000000002</v>
+      <c r="E414" s="5">
+        <v>2591</v>
       </c>
       <c r="F414" s="4">
         <v>316</v>
@@ -17465,8 +17479,8 @@
       <c r="L414" s="4">
         <v>145</v>
       </c>
-      <c r="M414" s="5">
-        <v>5.7069999999999999</v>
+      <c r="M414" s="6">
+        <v>5707</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17480,8 +17494,8 @@
       <c r="D415" s="4">
         <v>515</v>
       </c>
-      <c r="E415" s="4">
-        <v>3.7029999999999998</v>
+      <c r="E415" s="5">
+        <v>3703</v>
       </c>
       <c r="F415" s="4">
         <v>212</v>
@@ -17504,8 +17518,8 @@
       <c r="L415" s="4">
         <v>122</v>
       </c>
-      <c r="M415" s="5">
-        <v>6.391</v>
+      <c r="M415" s="6">
+        <v>6391</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -17521,8 +17535,8 @@
       <c r="D416" s="4">
         <v>74</v>
       </c>
-      <c r="E416" s="4">
-        <v>2.1269999999999998</v>
+      <c r="E416" s="5">
+        <v>2127</v>
       </c>
       <c r="F416" s="4">
         <v>124</v>
@@ -17545,8 +17559,8 @@
       <c r="L416" s="4">
         <v>78</v>
       </c>
-      <c r="M416" s="5">
-        <v>3.956</v>
+      <c r="M416" s="6">
+        <v>3956</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
@@ -17560,8 +17574,8 @@
       <c r="D417" s="4">
         <v>711</v>
       </c>
-      <c r="E417" s="4">
-        <v>2.5710000000000002</v>
+      <c r="E417" s="5">
+        <v>2571</v>
       </c>
       <c r="F417" s="4">
         <v>48</v>
@@ -17584,8 +17598,8 @@
       <c r="L417" s="4">
         <v>87</v>
       </c>
-      <c r="M417" s="5">
-        <v>4.5490000000000004</v>
+      <c r="M417" s="6">
+        <v>4549</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
@@ -17601,8 +17615,8 @@
       <c r="D418" s="4">
         <v>317</v>
       </c>
-      <c r="E418" s="4">
-        <v>2.4780000000000002</v>
+      <c r="E418" s="5">
+        <v>2478</v>
       </c>
       <c r="F418" s="4">
         <v>51</v>
@@ -17625,8 +17639,8 @@
       <c r="L418" s="4">
         <v>123</v>
       </c>
-      <c r="M418" s="5">
-        <v>4.2450000000000001</v>
+      <c r="M418" s="6">
+        <v>4245</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
@@ -17637,11 +17651,11 @@
       <c r="C419" s="4">
         <v>676</v>
       </c>
-      <c r="D419" s="4">
-        <v>2.0089999999999999</v>
-      </c>
-      <c r="E419" s="4">
-        <v>2.69</v>
+      <c r="D419" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E419" s="5">
+        <v>2690</v>
       </c>
       <c r="F419" s="4">
         <v>11</v>
@@ -17664,54 +17678,54 @@
       <c r="L419" s="4">
         <v>112</v>
       </c>
-      <c r="M419" s="5">
-        <v>6.05</v>
+      <c r="M419" s="6">
+        <v>6050</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
-        <v>1.9410000000000001</v>
-      </c>
-      <c r="D420" s="5">
-        <v>5.0359999999999996</v>
-      </c>
-      <c r="E420" s="5">
-        <v>46.802</v>
-      </c>
-      <c r="F420" s="5">
-        <v>28.143000000000001</v>
-      </c>
-      <c r="G420" s="5">
-        <v>34.362000000000002</v>
-      </c>
-      <c r="H420" s="5">
-        <v>77.728999999999999</v>
-      </c>
-      <c r="I420" s="5">
-        <v>50.887</v>
-      </c>
-      <c r="J420" s="5">
-        <v>4.9029999999999996</v>
-      </c>
-      <c r="K420" s="5">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="L420" s="5">
-        <v>2.633</v>
-      </c>
-      <c r="M420" s="5">
-        <v>253.51400000000001</v>
+      <c r="B420" s="7"/>
+      <c r="C420" s="6">
+        <v>1941</v>
+      </c>
+      <c r="D420" s="6">
+        <v>5036</v>
+      </c>
+      <c r="E420" s="6">
+        <v>46802</v>
+      </c>
+      <c r="F420" s="6">
+        <v>28143</v>
+      </c>
+      <c r="G420" s="6">
+        <v>34362</v>
+      </c>
+      <c r="H420" s="6">
+        <v>77729</v>
+      </c>
+      <c r="I420" s="6">
+        <v>50887</v>
+      </c>
+      <c r="J420" s="6">
+        <v>4903</v>
+      </c>
+      <c r="K420" s="6">
+        <v>1078</v>
+      </c>
+      <c r="L420" s="6">
+        <v>2633</v>
+      </c>
+      <c r="M420" s="6">
+        <v>253514</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B421" s="8"/>
+      <c r="B421" s="9"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -17783,8 +17797,8 @@
       <c r="L422" s="4">
         <v>8</v>
       </c>
-      <c r="M422" s="5">
-        <v>1.4970000000000001</v>
+      <c r="M422" s="6">
+        <v>1497</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17822,8 +17836,8 @@
       <c r="L423" s="4">
         <v>2</v>
       </c>
-      <c r="M423" s="5">
-        <v>1.4119999999999999</v>
+      <c r="M423" s="6">
+        <v>1412</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17863,8 +17877,8 @@
       <c r="L424" s="4">
         <v>9</v>
       </c>
-      <c r="M424" s="5">
-        <v>1.0209999999999999</v>
+      <c r="M424" s="6">
+        <v>1021</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
@@ -17902,7 +17916,7 @@
       <c r="L425" s="4">
         <v>3</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="8">
         <v>946</v>
       </c>
     </row>
@@ -17943,7 +17957,7 @@
       <c r="L426" s="4">
         <v>3</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="8">
         <v>939</v>
       </c>
     </row>
@@ -17982,7 +17996,7 @@
       <c r="L427" s="4">
         <v>6</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="8">
         <v>969</v>
       </c>
     </row>
@@ -18023,8 +18037,8 @@
       <c r="L428" s="4">
         <v>7</v>
       </c>
-      <c r="M428" s="5">
-        <v>1.0860000000000001</v>
+      <c r="M428" s="6">
+        <v>1086</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
@@ -18062,8 +18076,8 @@
       <c r="L429" s="4">
         <v>6</v>
       </c>
-      <c r="M429" s="5">
-        <v>1.016</v>
+      <c r="M429" s="6">
+        <v>1016</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
@@ -18103,8 +18117,8 @@
       <c r="L430" s="4">
         <v>8</v>
       </c>
-      <c r="M430" s="5">
-        <v>1.24</v>
+      <c r="M430" s="6">
+        <v>1240</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
@@ -18142,8 +18156,8 @@
       <c r="L431" s="4">
         <v>2</v>
       </c>
-      <c r="M431" s="5">
-        <v>1.1379999999999999</v>
+      <c r="M431" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
@@ -18183,8 +18197,8 @@
       <c r="L432" s="4">
         <v>6</v>
       </c>
-      <c r="M432" s="5">
-        <v>1.149</v>
+      <c r="M432" s="6">
+        <v>1149</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
@@ -18222,8 +18236,8 @@
       <c r="L433" s="4">
         <v>8</v>
       </c>
-      <c r="M433" s="5">
-        <v>1.0429999999999999</v>
+      <c r="M433" s="6">
+        <v>1043</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -18263,7 +18277,7 @@
       <c r="L434" s="4">
         <v>11</v>
       </c>
-      <c r="M434" s="5">
+      <c r="M434" s="8">
         <v>959</v>
       </c>
     </row>
@@ -18302,7 +18316,7 @@
       <c r="L435" s="4">
         <v>9</v>
       </c>
-      <c r="M435" s="5">
+      <c r="M435" s="8">
         <v>962</v>
       </c>
     </row>
@@ -18343,7 +18357,7 @@
       <c r="L436" s="4">
         <v>19</v>
       </c>
-      <c r="M436" s="5">
+      <c r="M436" s="8">
         <v>985</v>
       </c>
     </row>
@@ -18382,7 +18396,7 @@
       <c r="L437" s="4">
         <v>17</v>
       </c>
-      <c r="M437" s="5">
+      <c r="M437" s="8">
         <v>966</v>
       </c>
     </row>
@@ -18423,7 +18437,7 @@
       <c r="L438" s="4">
         <v>13</v>
       </c>
-      <c r="M438" s="5">
+      <c r="M438" s="8">
         <v>915</v>
       </c>
     </row>
@@ -18462,8 +18476,8 @@
       <c r="L439" s="4">
         <v>14</v>
       </c>
-      <c r="M439" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M439" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -18503,7 +18517,7 @@
       <c r="L440" s="4">
         <v>10</v>
       </c>
-      <c r="M440" s="5">
+      <c r="M440" s="8">
         <v>825</v>
       </c>
     </row>
@@ -18542,7 +18556,7 @@
       <c r="L441" s="4">
         <v>8</v>
       </c>
-      <c r="M441" s="5">
+      <c r="M441" s="8">
         <v>838</v>
       </c>
     </row>
@@ -18583,7 +18597,7 @@
       <c r="L442" s="4">
         <v>16</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="8">
         <v>554</v>
       </c>
     </row>
@@ -18622,7 +18636,7 @@
       <c r="L443" s="4">
         <v>17</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="8">
         <v>687</v>
       </c>
     </row>
@@ -18663,7 +18677,7 @@
       <c r="L444" s="4">
         <v>15</v>
       </c>
-      <c r="M444" s="5">
+      <c r="M444" s="8">
         <v>643</v>
       </c>
     </row>
@@ -18702,7 +18716,7 @@
       <c r="L445" s="4">
         <v>11</v>
       </c>
-      <c r="M445" s="5">
+      <c r="M445" s="8">
         <v>933</v>
       </c>
     </row>
@@ -18710,46 +18724,46 @@
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5">
+      <c r="B446" s="7"/>
+      <c r="C446" s="8">
         <v>168</v>
       </c>
-      <c r="D446" s="5">
-        <v>1.081</v>
-      </c>
-      <c r="E446" s="5">
-        <v>6.8879999999999999</v>
-      </c>
-      <c r="F446" s="5">
-        <v>2.4089999999999998</v>
-      </c>
-      <c r="G446" s="5">
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="H446" s="5">
-        <v>6.1180000000000003</v>
-      </c>
-      <c r="I446" s="5">
-        <v>2.93</v>
-      </c>
-      <c r="J446" s="5">
+      <c r="D446" s="6">
+        <v>1081</v>
+      </c>
+      <c r="E446" s="6">
+        <v>6888</v>
+      </c>
+      <c r="F446" s="6">
+        <v>2409</v>
+      </c>
+      <c r="G446" s="6">
+        <v>3696</v>
+      </c>
+      <c r="H446" s="6">
+        <v>6118</v>
+      </c>
+      <c r="I446" s="6">
+        <v>2930</v>
+      </c>
+      <c r="J446" s="8">
         <v>200</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="8">
         <v>18</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="8">
         <v>228</v>
       </c>
-      <c r="M446" s="5">
-        <v>23.736000000000001</v>
+      <c r="M446" s="6">
+        <v>23736</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A447" s="8" t="s">
+      <c r="A447" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B447" s="8"/>
+      <c r="B447" s="9"/>
       <c r="C447" s="2" t="s">
         <v>2</v>
       </c>
@@ -18821,7 +18835,7 @@
       <c r="L448" s="4">
         <v>5</v>
       </c>
-      <c r="M448" s="5">
+      <c r="M448" s="8">
         <v>732</v>
       </c>
     </row>
@@ -18860,7 +18874,7 @@
       <c r="L449" s="4">
         <v>2</v>
       </c>
-      <c r="M449" s="5">
+      <c r="M449" s="8">
         <v>729</v>
       </c>
     </row>
@@ -18901,7 +18915,7 @@
       <c r="L450" s="4">
         <v>2</v>
       </c>
-      <c r="M450" s="5">
+      <c r="M450" s="8">
         <v>492</v>
       </c>
     </row>
@@ -18940,7 +18954,7 @@
       <c r="L451" s="4">
         <v>3</v>
       </c>
-      <c r="M451" s="5">
+      <c r="M451" s="8">
         <v>442</v>
       </c>
     </row>
@@ -18981,7 +18995,7 @@
       <c r="L452" s="4">
         <v>1</v>
       </c>
-      <c r="M452" s="5">
+      <c r="M452" s="8">
         <v>396</v>
       </c>
     </row>
@@ -19020,7 +19034,7 @@
       <c r="L453" s="4">
         <v>4</v>
       </c>
-      <c r="M453" s="5">
+      <c r="M453" s="8">
         <v>397</v>
       </c>
     </row>
@@ -19061,7 +19075,7 @@
       <c r="L454" s="4">
         <v>2</v>
       </c>
-      <c r="M454" s="5">
+      <c r="M454" s="8">
         <v>443</v>
       </c>
     </row>
@@ -19100,7 +19114,7 @@
       <c r="L455" s="4">
         <v>2</v>
       </c>
-      <c r="M455" s="5">
+      <c r="M455" s="8">
         <v>418</v>
       </c>
     </row>
@@ -19141,7 +19155,7 @@
       <c r="L456" s="4">
         <v>5</v>
       </c>
-      <c r="M456" s="5">
+      <c r="M456" s="8">
         <v>525</v>
       </c>
     </row>
@@ -19180,7 +19194,7 @@
       <c r="L457" s="4">
         <v>3</v>
       </c>
-      <c r="M457" s="5">
+      <c r="M457" s="8">
         <v>452</v>
       </c>
     </row>
@@ -19221,7 +19235,7 @@
       <c r="L458" s="4">
         <v>4</v>
       </c>
-      <c r="M458" s="5">
+      <c r="M458" s="8">
         <v>474</v>
       </c>
     </row>
@@ -19260,7 +19274,7 @@
       <c r="L459" s="4">
         <v>4</v>
       </c>
-      <c r="M459" s="5">
+      <c r="M459" s="8">
         <v>466</v>
       </c>
     </row>
@@ -19301,7 +19315,7 @@
       <c r="L460" s="4">
         <v>6</v>
       </c>
-      <c r="M460" s="5">
+      <c r="M460" s="8">
         <v>512</v>
       </c>
     </row>
@@ -19340,7 +19354,7 @@
       <c r="L461" s="4">
         <v>2</v>
       </c>
-      <c r="M461" s="5">
+      <c r="M461" s="8">
         <v>482</v>
       </c>
     </row>
@@ -19381,7 +19395,7 @@
       <c r="L462" s="4">
         <v>6</v>
       </c>
-      <c r="M462" s="5">
+      <c r="M462" s="8">
         <v>521</v>
       </c>
     </row>
@@ -19420,7 +19434,7 @@
       <c r="L463" s="4">
         <v>5</v>
       </c>
-      <c r="M463" s="5">
+      <c r="M463" s="8">
         <v>454</v>
       </c>
     </row>
@@ -19461,7 +19475,7 @@
       <c r="L464" s="4">
         <v>4</v>
       </c>
-      <c r="M464" s="5">
+      <c r="M464" s="8">
         <v>436</v>
       </c>
     </row>
@@ -19500,7 +19514,7 @@
       <c r="L465" s="4">
         <v>2</v>
       </c>
-      <c r="M465" s="5">
+      <c r="M465" s="8">
         <v>469</v>
       </c>
     </row>
@@ -19541,7 +19555,7 @@
       <c r="L466" s="4">
         <v>3</v>
       </c>
-      <c r="M466" s="5">
+      <c r="M466" s="8">
         <v>336</v>
       </c>
     </row>
@@ -19580,7 +19594,7 @@
       <c r="L467" s="4">
         <v>1</v>
       </c>
-      <c r="M467" s="5">
+      <c r="M467" s="8">
         <v>377</v>
       </c>
     </row>
@@ -19621,7 +19635,7 @@
       <c r="L468" s="4">
         <v>5</v>
       </c>
-      <c r="M468" s="5">
+      <c r="M468" s="8">
         <v>304</v>
       </c>
     </row>
@@ -19660,7 +19674,7 @@
       <c r="L469" s="4">
         <v>10</v>
       </c>
-      <c r="M469" s="5">
+      <c r="M469" s="8">
         <v>389</v>
       </c>
     </row>
@@ -19701,7 +19715,7 @@
       <c r="L470" s="4">
         <v>6</v>
       </c>
-      <c r="M470" s="5">
+      <c r="M470" s="8">
         <v>370</v>
       </c>
     </row>
@@ -19740,7 +19754,7 @@
       <c r="L471" s="4">
         <v>7</v>
       </c>
-      <c r="M471" s="5">
+      <c r="M471" s="8">
         <v>668</v>
       </c>
     </row>
@@ -19748,46 +19762,46 @@
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B472" s="6"/>
-      <c r="C472" s="5">
+      <c r="B472" s="7"/>
+      <c r="C472" s="8">
         <v>277</v>
       </c>
-      <c r="D472" s="5">
+      <c r="D472" s="8">
         <v>651</v>
       </c>
-      <c r="E472" s="5">
-        <v>3.4809999999999999</v>
-      </c>
-      <c r="F472" s="5">
+      <c r="E472" s="6">
+        <v>3481</v>
+      </c>
+      <c r="F472" s="8">
         <v>985</v>
       </c>
-      <c r="G472" s="5">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="H472" s="5">
-        <v>2.911</v>
-      </c>
-      <c r="I472" s="5">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="J472" s="5">
+      <c r="G472" s="6">
+        <v>1745</v>
+      </c>
+      <c r="H472" s="6">
+        <v>2911</v>
+      </c>
+      <c r="I472" s="6">
+        <v>1067</v>
+      </c>
+      <c r="J472" s="8">
         <v>66</v>
       </c>
-      <c r="K472" s="5">
+      <c r="K472" s="8">
         <v>7</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="8">
         <v>94</v>
       </c>
-      <c r="M472" s="5">
-        <v>11.284000000000001</v>
+      <c r="M472" s="6">
+        <v>11284</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B473" s="8"/>
+      <c r="B473" s="9"/>
       <c r="C473" s="2" t="s">
         <v>2</v>
       </c>
@@ -19844,8 +19858,8 @@
       <c r="G474" s="4">
         <v>488</v>
       </c>
-      <c r="H474" s="4">
-        <v>1.0660000000000001</v>
+      <c r="H474" s="5">
+        <v>1066</v>
       </c>
       <c r="I474" s="4">
         <v>246</v>
@@ -19859,8 +19873,8 @@
       <c r="L474" s="4">
         <v>31</v>
       </c>
-      <c r="M474" s="5">
-        <v>1.85</v>
+      <c r="M474" s="6">
+        <v>1850</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -19883,8 +19897,8 @@
       <c r="G475" s="4">
         <v>195</v>
       </c>
-      <c r="H475" s="4">
-        <v>1.1539999999999999</v>
+      <c r="H475" s="5">
+        <v>1154</v>
       </c>
       <c r="I475" s="4">
         <v>368</v>
@@ -19898,8 +19912,8 @@
       <c r="L475" s="4">
         <v>21</v>
       </c>
-      <c r="M475" s="5">
-        <v>1.766</v>
+      <c r="M475" s="6">
+        <v>1766</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -19939,8 +19953,8 @@
       <c r="L476" s="4">
         <v>12</v>
       </c>
-      <c r="M476" s="5">
-        <v>1.2889999999999999</v>
+      <c r="M476" s="6">
+        <v>1289</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -19978,8 +19992,8 @@
       <c r="L477" s="4">
         <v>11</v>
       </c>
-      <c r="M477" s="5">
-        <v>1.0049999999999999</v>
+      <c r="M477" s="6">
+        <v>1005</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
@@ -20019,8 +20033,8 @@
       <c r="L478" s="4">
         <v>9</v>
       </c>
-      <c r="M478" s="5">
-        <v>1.073</v>
+      <c r="M478" s="6">
+        <v>1073</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
@@ -20058,7 +20072,7 @@
       <c r="L479" s="4">
         <v>7</v>
       </c>
-      <c r="M479" s="5">
+      <c r="M479" s="8">
         <v>931</v>
       </c>
     </row>
@@ -20099,8 +20113,8 @@
       <c r="L480" s="4">
         <v>14</v>
       </c>
-      <c r="M480" s="5">
-        <v>1.2030000000000001</v>
+      <c r="M480" s="6">
+        <v>1203</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -20138,8 +20152,8 @@
       <c r="L481" s="4">
         <v>14</v>
       </c>
-      <c r="M481" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M481" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -20179,8 +20193,8 @@
       <c r="L482" s="4">
         <v>14</v>
       </c>
-      <c r="M482" s="5">
-        <v>1.4710000000000001</v>
+      <c r="M482" s="6">
+        <v>1471</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -20218,8 +20232,8 @@
       <c r="L483" s="4">
         <v>12</v>
       </c>
-      <c r="M483" s="5">
-        <v>1.266</v>
+      <c r="M483" s="6">
+        <v>1266</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
@@ -20259,8 +20273,8 @@
       <c r="L484" s="4">
         <v>21</v>
       </c>
-      <c r="M484" s="5">
-        <v>1.4790000000000001</v>
+      <c r="M484" s="6">
+        <v>1479</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -20298,8 +20312,8 @@
       <c r="L485" s="4">
         <v>25</v>
       </c>
-      <c r="M485" s="5">
-        <v>1.3979999999999999</v>
+      <c r="M485" s="6">
+        <v>1398</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -20339,8 +20353,8 @@
       <c r="L486" s="4">
         <v>28</v>
       </c>
-      <c r="M486" s="5">
-        <v>1.534</v>
+      <c r="M486" s="6">
+        <v>1534</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -20378,8 +20392,8 @@
       <c r="L487" s="4">
         <v>33</v>
       </c>
-      <c r="M487" s="5">
-        <v>1.4950000000000001</v>
+      <c r="M487" s="6">
+        <v>1495</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
@@ -20419,8 +20433,8 @@
       <c r="L488" s="4">
         <v>48</v>
       </c>
-      <c r="M488" s="5">
-        <v>1.6240000000000001</v>
+      <c r="M488" s="6">
+        <v>1624</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -20434,8 +20448,8 @@
       <c r="D489" s="4">
         <v>42</v>
       </c>
-      <c r="E489" s="4">
-        <v>1.0529999999999999</v>
+      <c r="E489" s="5">
+        <v>1053</v>
       </c>
       <c r="F489" s="4">
         <v>154</v>
@@ -20458,8 +20472,8 @@
       <c r="L489" s="4">
         <v>37</v>
       </c>
-      <c r="M489" s="5">
-        <v>1.5329999999999999</v>
+      <c r="M489" s="6">
+        <v>1533</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -20499,8 +20513,8 @@
       <c r="L490" s="4">
         <v>43</v>
       </c>
-      <c r="M490" s="5">
-        <v>1.4850000000000001</v>
+      <c r="M490" s="6">
+        <v>1485</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -20514,8 +20528,8 @@
       <c r="D491" s="4">
         <v>118</v>
       </c>
-      <c r="E491" s="4">
-        <v>1.2210000000000001</v>
+      <c r="E491" s="5">
+        <v>1221</v>
       </c>
       <c r="F491" s="4">
         <v>76</v>
@@ -20538,8 +20552,8 @@
       <c r="L491" s="4">
         <v>30</v>
       </c>
-      <c r="M491" s="5">
-        <v>1.615</v>
+      <c r="M491" s="6">
+        <v>1615</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -20579,8 +20593,8 @@
       <c r="L492" s="4">
         <v>46</v>
       </c>
-      <c r="M492" s="5">
-        <v>1.3080000000000001</v>
+      <c r="M492" s="6">
+        <v>1308</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -20594,8 +20608,8 @@
       <c r="D493" s="4">
         <v>241</v>
       </c>
-      <c r="E493" s="4">
-        <v>1.048</v>
+      <c r="E493" s="5">
+        <v>1048</v>
       </c>
       <c r="F493" s="4">
         <v>39</v>
@@ -20618,8 +20632,8 @@
       <c r="L493" s="4">
         <v>36</v>
       </c>
-      <c r="M493" s="5">
-        <v>1.518</v>
+      <c r="M493" s="6">
+        <v>1518</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -20659,8 +20673,8 @@
       <c r="L494" s="4">
         <v>30</v>
       </c>
-      <c r="M494" s="5">
-        <v>1.081</v>
+      <c r="M494" s="6">
+        <v>1081</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
@@ -20698,8 +20712,8 @@
       <c r="L495" s="4">
         <v>33</v>
       </c>
-      <c r="M495" s="5">
-        <v>1.343</v>
+      <c r="M495" s="6">
+        <v>1343</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -20715,8 +20729,8 @@
       <c r="D496" s="4">
         <v>151</v>
       </c>
-      <c r="E496" s="4">
-        <v>1.0229999999999999</v>
+      <c r="E496" s="5">
+        <v>1023</v>
       </c>
       <c r="F496" s="4">
         <v>10</v>
@@ -20739,8 +20753,8 @@
       <c r="L496" s="4">
         <v>29</v>
       </c>
-      <c r="M496" s="5">
-        <v>1.3480000000000001</v>
+      <c r="M496" s="6">
+        <v>1348</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -20751,8 +20765,8 @@
       <c r="C497" s="4">
         <v>482</v>
       </c>
-      <c r="D497" s="4">
-        <v>1.153</v>
+      <c r="D497" s="5">
+        <v>1153</v>
       </c>
       <c r="E497" s="4">
         <v>772</v>
@@ -20778,55 +20792,61 @@
       <c r="L497" s="4">
         <v>27</v>
       </c>
-      <c r="M497" s="5">
-        <v>2.4729999999999999</v>
+      <c r="M497" s="6">
+        <v>2473</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B498" s="6"/>
-      <c r="C498" s="5">
+      <c r="B498" s="7"/>
+      <c r="C498" s="8">
         <v>777</v>
       </c>
-      <c r="D498" s="5">
-        <v>2.294</v>
-      </c>
-      <c r="E498" s="5">
-        <v>12.776999999999999</v>
-      </c>
-      <c r="F498" s="5">
-        <v>3.1139999999999999</v>
-      </c>
-      <c r="G498" s="5">
-        <v>4.3579999999999997</v>
-      </c>
-      <c r="H498" s="5">
-        <v>6.2839999999999998</v>
-      </c>
-      <c r="I498" s="5">
-        <v>3.6080000000000001</v>
-      </c>
-      <c r="J498" s="5">
+      <c r="D498" s="6">
+        <v>2294</v>
+      </c>
+      <c r="E498" s="6">
+        <v>12777</v>
+      </c>
+      <c r="F498" s="6">
+        <v>3114</v>
+      </c>
+      <c r="G498" s="6">
+        <v>4358</v>
+      </c>
+      <c r="H498" s="6">
+        <v>6284</v>
+      </c>
+      <c r="I498" s="6">
+        <v>3608</v>
+      </c>
+      <c r="J498" s="8">
         <v>310</v>
       </c>
-      <c r="K498" s="5">
+      <c r="K498" s="8">
         <v>27</v>
       </c>
-      <c r="L498" s="5">
+      <c r="L498" s="8">
         <v>611</v>
       </c>
-      <c r="M498" s="5">
-        <v>34.159999999999997</v>
+      <c r="M498" s="6">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A473:B473"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A317:B317"/>
@@ -20843,6 +20863,10 @@
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
